--- a/Database/Literature Database.xlsx
+++ b/Database/Literature Database.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cladbury\OneDrive - City of Hope National Medical Center\Disease Sites\COHRadOncResidentResources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cityofhope-my.sharepoint.com/personal/cladbury_coh_org/Documents/Disease Sites/COHRadOncResidentResources/Database/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,9 +15,9 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Sheet1!$B$2:$G$239</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Sheet1!$B$2:$G$240</definedName>
   </definedNames>
-  <calcPr calcId="162913" calcCompleted="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="325">
   <si>
     <t>Lung</t>
   </si>
@@ -999,6 +999,9 @@
   </si>
   <si>
     <t>Patterns of Failure (Oppedijk, 2014)</t>
+  </si>
+  <si>
+    <t>Chinese Chemo vs CRT (Wang 2021)</t>
   </si>
 </sst>
 </file>
@@ -1455,13 +1458,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CM239"/>
+  <dimension ref="A1:CM240"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B207" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E215" sqref="E215"/>
+      <selection pane="bottomRight" activeCell="D239" sqref="D239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5270,10 +5273,12 @@
         <v>40</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D233" s="5"/>
-      <c r="E233" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D233" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="E233" s="10" t="s">
         <v>1</v>
       </c>
       <c r="F233" s="5"/>
@@ -5284,7 +5289,7 @@
         <v>40</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D234" s="5"/>
       <c r="E234" s="6" t="s">
@@ -5298,7 +5303,7 @@
         <v>40</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D235" s="5"/>
       <c r="E235" s="6" t="s">
@@ -5312,7 +5317,7 @@
         <v>40</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D236" s="5"/>
       <c r="E236" s="6" t="s">
@@ -5323,10 +5328,10 @@
     </row>
     <row r="237" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B237" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D237" s="5"/>
       <c r="E237" s="6" t="s">
@@ -5340,7 +5345,7 @@
         <v>41</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D238" s="5"/>
       <c r="E238" s="6" t="s">
@@ -5354,7 +5359,7 @@
         <v>41</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D239" s="5"/>
       <c r="E239" s="6" t="s">
@@ -5363,8 +5368,22 @@
       <c r="F239" s="5"/>
       <c r="G239" s="5"/>
     </row>
+    <row r="240" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B240" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D240" s="5"/>
+      <c r="E240" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F240" s="5"/>
+      <c r="G240" s="5"/>
+    </row>
   </sheetData>
-  <autoFilter ref="B2:G239"/>
+  <autoFilter ref="B2:G240"/>
   <hyperlinks>
     <hyperlink ref="E123" r:id="rId1"/>
     <hyperlink ref="D3" r:id="rId2"/>
@@ -5824,19 +5843,15 @@
     <hyperlink ref="E221" r:id="rId456"/>
     <hyperlink ref="E222" r:id="rId457"/>
     <hyperlink ref="E215" r:id="rId458"/>
+    <hyperlink ref="D233" r:id="rId459"/>
+    <hyperlink ref="E233" r:id="rId460"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId459"/>
+  <pageSetup orientation="portrait" r:id="rId461"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007888E8BDFDA7B047988C3F6D47A3FA47" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="31277e96d0fac46bd8ecae45373800e5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="0610ab66-1de2-47e7-907f-b8ce3d38ca1f" xmlns:ns4="791c3732-1b31-441b-9e02-7ed2487cdbb2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7fa3b53b89d09b528eef8c10e7fc52a1" ns3:_="" ns4:_="">
     <xsd:import namespace="0610ab66-1de2-47e7-907f-b8ce3d38ca1f"/>
@@ -6053,6 +6068,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -6063,23 +6084,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98ACF4A6-C4DE-4652-BD99-6E764A5F5C64}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="0610ab66-1de2-47e7-907f-b8ce3d38ca1f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="791c3732-1b31-441b-9e02-7ed2487cdbb2"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C6F01EF-5E57-4C08-9D56-6F7B2D35684D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6098,6 +6102,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98ACF4A6-C4DE-4652-BD99-6E764A5F5C64}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="791c3732-1b31-441b-9e02-7ed2487cdbb2"/>
+    <ds:schemaRef ds:uri="0610ab66-1de2-47e7-907f-b8ce3d38ca1f"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{519BCD5D-2E5B-47C1-8979-8445AA1531B8}">
   <ds:schemaRefs>

--- a/Database/Literature Database.xlsx
+++ b/Database/Literature Database.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cityofhope-my.sharepoint.com/personal/cladbury_coh_org/Documents/Disease Sites/COHRadOncResidentResources/Database/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{E69AFFA7-917B-F140-8F64-0125A98E2555}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16005"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,17 +18,26 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">Sheet1!$B$2:$G$240</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="785">
   <si>
     <t>Lung</t>
   </si>
@@ -1002,12 +1012,1392 @@
   </si>
   <si>
     <t>Chinese Chemo vs CRT (Wang 2021)</t>
+  </si>
+  <si>
+    <t>https://jamanetwork.com/journals/jamasurgery/fullarticle/2777648</t>
+  </si>
+  <si>
+    <t>https://ascopubs.org/doi/abs/10.1200/JCO.2015.62.6606</t>
+  </si>
+  <si>
+    <t>CNS/GBM/IAEA 5x5 in Elderly (Roa, 2015).pdf</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/19269895</t>
+  </si>
+  <si>
+    <t>CNS/GBM/EORTC 26981.22981.NCIC CE.3 (Stupp).pdf</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/17429084</t>
+  </si>
+  <si>
+    <t>CNS/GBM/French – Elderly Population (Keime-Guibert, 2007).pdf</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/15051755</t>
+  </si>
+  <si>
+    <t>CNS/GBM/Canadian – Hypofractionation (Roa, 2004).pdf</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/22877848</t>
+  </si>
+  <si>
+    <t>CNS/GBM/Nordic (Maelstrom, 2012).pdf</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/28296618</t>
+  </si>
+  <si>
+    <t>CNS/GBM/EORTC 26062 (NEJM, 2017).pdf</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/15465203</t>
+  </si>
+  <si>
+    <t>CNS/GBM/RTOG 93-05, SRS (Souhami, 2004).pdf</t>
+  </si>
+  <si>
+    <t>https://www.thelancet.com/journals/lancet/article/PIIS0140-6736(18)31791-4/fulltext</t>
+  </si>
+  <si>
+    <t>CNS/GBM/CeTeG.NOA-09 (Lancet 2019).pdf</t>
+  </si>
+  <si>
+    <t>https://jamanetwork.com/journals/jama/fullarticle/2666504</t>
+  </si>
+  <si>
+    <t>CNS/GBM/TTF - Stupp 2 (Jama, 2015).pdf</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/27157931</t>
+  </si>
+  <si>
+    <t>CNS/Anaplastic Glioma/WHO Classification.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/19901110</t>
+  </si>
+  <si>
+    <t>CNS/Anaplastic Glioma/NOA-04 – Anaplastic Glioma (Wick, 2009).pdf</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5063521/</t>
+  </si>
+  <si>
+    <t>CNS/Anaplastic Glioma/NOA-04 Long Term Update (Wick, 2016).pdf</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/21636710</t>
+  </si>
+  <si>
+    <t>CNS/Anaplastic Glioma/Retrospective Analysis of anaplastic oligodendroglioma (Lassman, 2011).pdf</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/23071247</t>
+  </si>
+  <si>
+    <t>CNS/Anaplastic Glioma/RTOG 94-02 (Cairncross, 2013).pdf</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/23071237</t>
+  </si>
+  <si>
+    <t>CNS/Anaplastic Glioma/EORTC 26951 (van den Bent, 2013).pdf</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/28801186</t>
+  </si>
+  <si>
+    <t>CNS/Anaplastic Glioma/CANTON Trial (Interim results, Lancet 2017).pdf</t>
+  </si>
+  <si>
+    <t>http://www.neurology.org/content/86/16_Supplement/PL02.005</t>
+  </si>
+  <si>
+    <t>CNS/Anaplastic Glioma/CODEL Trial at AAN.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/8948338</t>
+  </si>
+  <si>
+    <t>CNS/LGG/EORTC 22844 – “Believers’” (Karim, 1996).pdf</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/16168780</t>
+  </si>
+  <si>
+    <t>CNS/LGG/EORTC 22845 – “Non Believers’” (van den Bent, 2005).pdf</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/11956268</t>
+  </si>
+  <si>
+    <t>CNS/LGG/Risk Factors based on EORTC Trials (Pignatti, 2002).pdf</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/27050206</t>
+  </si>
+  <si>
+    <t>CNS/LGG/RTOG 9802 long-term (Buckner, 2016).pdf</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/25680596</t>
+  </si>
+  <si>
+    <t>CNS/LGG/RTOG 0424 (Fisher, 2015).pdf</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/27686946</t>
+  </si>
+  <si>
+    <t>CNS/LGG/EORTC 22033 (Baumert, Lancet 2016).pdf</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/20530316</t>
+  </si>
+  <si>
+    <t>H&amp;N/Oropharynx/Risk Factors – RTOG 0129 (Ang, 2010).pdf</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24613816</t>
+  </si>
+  <si>
+    <t>H&amp;N/Oropharynx/Acceleration – RTOG 9003 (Beitler 2014).pdf</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/12506176</t>
+  </si>
+  <si>
+    <t>H&amp;N/Oropharynx/Chemo-RT (i.e. Adelstein, 2003).pdf</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/19897418</t>
+  </si>
+  <si>
+    <t>H&amp;N/Oropharynx/Cetuximab + RT (Bonner, 2010).pdf</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/25154822</t>
+  </si>
+  <si>
+    <t>H&amp;N/Oropharynx/Acceleration + Chemotherapy – RTOG 0522  (Ang, 2014).pdf</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/22261362</t>
+  </si>
+  <si>
+    <t>H&amp;N/Oropharynx/GORTEC 9902 (Bourhis 2012).pdf</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/11567806</t>
+  </si>
+  <si>
+    <t>H&amp;N/Oropharynx/Ipsilateral Tonsil (O’Sullivan, 2001).pdf</t>
+  </si>
+  <si>
+    <t>https://www.thelancet.com/journals/lancet/article/PIIS0140-6736(18)32779-X/fulltext</t>
+  </si>
+  <si>
+    <t>H&amp;N/Oropharynx/RTOG 1016 (Gillison 2018).pdf</t>
+  </si>
+  <si>
+    <t>https://www.thelancet.com/journals/lancet/article/PIIS0140-6736(18)32752-1/fulltext</t>
+  </si>
+  <si>
+    <t>H&amp;N/Oropharynx/De-ESCALaTE HPV (Mehanna 2019).pdf</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/9552031</t>
+  </si>
+  <si>
+    <t>H&amp;N/Nasopharynx/Intergroup 0099 - Chemoradiation (Al Sarraf, 1998).pdf</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/16170180</t>
+  </si>
+  <si>
+    <t>H&amp;N/Nasopharynx/Chemoradiation in Endemic Populations (Wee, 2005).pdf</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/22154591</t>
+  </si>
+  <si>
+    <t>H&amp;N/Nasopharynx/Role of Adjuvant Chemotherapy (Chen, 2012).pdf</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/19564532</t>
+  </si>
+  <si>
+    <t>H&amp;N/Nasopharynx/RTOG 0225 – IMRT (Lee, 2009).pdf</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/27686945/</t>
+  </si>
+  <si>
+    <t>H&amp;N/Nasopharynx/Induction Chemo (Sun, 2016).pdf</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/16169681/</t>
+  </si>
+  <si>
+    <t>H&amp;N/Larynx&amp;Hypolarynx/Early Glottic, Japanese (Yamazaki, 2006).pdf</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/25035199/</t>
+  </si>
+  <si>
+    <t>H&amp;N/Larynx&amp;Hypolarynx/RTOG 9512 – Hyperfractionation vs. Conventional Fractionation (Trotti 2014).pdf</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/2034244/</t>
+  </si>
+  <si>
+    <t>H&amp;N/Larynx&amp;Hypolarynx/Larynx Preservation, VA Larynx Trial (VA Study Group, 1991).pdf</t>
+  </si>
+  <si>
+    <t>https://ascopubs.org/doi/10.1200/JCO.1994.12.8.1592</t>
+  </si>
+  <si>
+    <t>H&amp;N/Larynx&amp;Hypolarynx/Larynx Preservation VA Update - (Spaulding 1994).pdf</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/23182993</t>
+  </si>
+  <si>
+    <t>H&amp;N/Larynx&amp;Hypolarynx/Larynx Preservation, RTOG 9111 (Forastiere, 2013).pdf</t>
+  </si>
+  <si>
+    <t>http://jco.ascopubs.org/content/32/25/2735.abstract?ijkey=86ab2cc6a91330d2106baa005e1ccf48e17bc035&amp;keytype2=tf_ipsecsha</t>
+  </si>
+  <si>
+    <t>H&amp;N/Larynx&amp;Hypolarynx/Induction Chemotherapy (DECIDE and PARADIGM).pdf</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/25958831/</t>
+  </si>
+  <si>
+    <t>H&amp;N/Larynx&amp;Hypolarynx/Carotid Sparing IMRT (Zumsteg 2015).pdf</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/22492697</t>
+  </si>
+  <si>
+    <t>H&amp;N/Larynx&amp;Hypolarynx/Larynx Preservation Hypopharynx, EORTC 24891 (Lefebvre, 2012).pdf</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/8482629</t>
+  </si>
+  <si>
+    <t>H&amp;N/Post-Op/Dose Escalation and Risk Factors (Peters, 1993).pdf</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/11597795</t>
+  </si>
+  <si>
+    <t>H&amp;N/Post-Op/Risk Factors and Treatment Time (Ang, 2001).pdf</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/15128893</t>
+  </si>
+  <si>
+    <t>H&amp;N/Post-Op/RTOG 9501 (Cooper, 2004).pdf</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/15128894</t>
+  </si>
+  <si>
+    <t>H&amp;N/Post-Op/EORTC 22931 (Bernier, 2004).pdf</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/16161069</t>
+  </si>
+  <si>
+    <t>H&amp;N/Post-Op/Joint Analysis of EORTC 22931 and RTOG 9501 (Bernier, 2005).pdf</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/30801885/</t>
+  </si>
+  <si>
+    <t>H&amp;N/Post-Op/Oral Cavity Depth of Invasion (Ebrahimi, 2019).pdf</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/15629600?dopt=Abstract</t>
+  </si>
+  <si>
+    <t>H&amp;N/Salivary Glands/Role of RT in Salivary Tumors.pdf</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/22539053</t>
+  </si>
+  <si>
+    <t>H&amp;N/Salivary Glands/Risk of nodal involvement major salivary gland.pdf</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/19386433</t>
+  </si>
+  <si>
+    <t>H&amp;N/Salivary Glands/Risk of nodal involvement minor salivary gland.pdf</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/21676553/</t>
+  </si>
+  <si>
+    <t>H&amp;N/Rare Tumors/Esthesioneuroblastoma Elective Nodal (Demiroz, 2011).pdf</t>
+  </si>
+  <si>
+    <t>https://ascopubs.org/doi/full/10.1200/JCO.18.00353</t>
+  </si>
+  <si>
+    <t>H&amp;N/Sinonasal/Induction Chemo Response (Amit 2019).pdf</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/10561173</t>
+  </si>
+  <si>
+    <t>GU/Seminoma/TE 10 (Fossa, 1999) Field Size.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/15718317</t>
+  </si>
+  <si>
+    <t>GU/Seminoma/TE 18 (Jones, 2005) Dose.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/21282539</t>
+  </si>
+  <si>
+    <t>GU/Seminoma/TE 19 (Oliver, 2011) Carboplatin.pdf</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/12431967</t>
+  </si>
+  <si>
+    <t>GU/Seminoma/Recurrence after Surveillance (Warde, 2002).pdf</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>GU/Seminoma/Stage II (Classen, 2003).pdf</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/26700704</t>
+  </si>
+  <si>
+    <t>GU/Seminoma/Stage I (Glaser, 2016).pdf</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/27146264</t>
+  </si>
+  <si>
+    <t>GU/Seminoma/Stage II (Glaser, 2016).pdf</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/16710030</t>
+  </si>
+  <si>
+    <t>GU/Bladder/Non-Muscle Invasive (Weiss, 2006).pdf</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/11157016</t>
+  </si>
+  <si>
+    <t>GU/Bladder/Cystectomy (Stein, 2001).pdf</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/25498218</t>
+  </si>
+  <si>
+    <t>GU/Bladder/Adj Chemo Timing (Sternberg, 2015).pdf</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/21502557</t>
+  </si>
+  <si>
+    <t>GU/Bladder/Neoadj Chemo (JCO, 2011).pdf</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/22512481</t>
+  </si>
+  <si>
+    <t>GU/Bladder/Non-operative Management (James 2012, Huddart 2013).pdf</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/23823157</t>
+  </si>
+  <si>
+    <t>GU/Bladder/Bladder Preservation (Mitin, 2013).pdf</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/19297565?dopt=Abstract</t>
+  </si>
+  <si>
+    <t>GU/Prostate/Low Risk/PLCO Screening (NEJM, 2009).pdf</t>
+  </si>
+  <si>
+    <t>http://www.nejm.org/doi/full/10.1056/NEJMc1515131</t>
+  </si>
+  <si>
+    <t>GU/Prostate/Low Risk/Interesting Re-Analysis of PLCO (NEJM, 2016).pdf</t>
+  </si>
+  <si>
+    <t>http://www.nejm.org/doi/full/10.1056/NEJMc1607379</t>
+  </si>
+  <si>
+    <t>GU/Prostate/Low Risk/Investigators Reply (NEJM, 2016).pdf</t>
+  </si>
+  <si>
+    <t>http://www.nejm.org/doi/full/10.1056/NEJMoa1606220</t>
+  </si>
+  <si>
+    <t>GU/Prostate/Low Risk/Protect (NEJM, 2016).pdf</t>
+  </si>
+  <si>
+    <t>http://www.nejm.org/doi/full/10.1056/NEJMoa1606221</t>
+  </si>
+  <si>
+    <t>GU/Prostate/Low Risk/Protect QoL (NEJM, 2016).pdf</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4961874/</t>
+  </si>
+  <si>
+    <t>GU/Prostate/Low Risk/CHHiP (Lancet Oncology, 2016).pdf</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/27044935</t>
+  </si>
+  <si>
+    <t>GU/Prostate/Low Risk/RTOG 0415 (JCO, 2016).pdf</t>
+  </si>
+  <si>
+    <t>https://www.nejm.org/doi/full/10.1056/NEJMoa1807801</t>
+  </si>
+  <si>
+    <t>GU/Prostate/Low Risk/SPCG-4 29-Yr Follow-up (NEJM, 2018).pdf</t>
+  </si>
+  <si>
+    <t>http://www.nejm.org/doi/full/10.1056/NEJMoa1615869</t>
+  </si>
+  <si>
+    <t>GU/Prostate/Low Risk/PIVOT long-term update (Wilt TJ, 2017).pdf</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/28110982</t>
+  </si>
+  <si>
+    <t>GU/Prostate/Low Risk/PROMIS (Lancet, 2017).pdf</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/18565884</t>
+  </si>
+  <si>
+    <t>GU/Prostate/High Risk/Harvard No ADT vs. 6 Months (D’Amico, 2008).pdf</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/21751904</t>
+  </si>
+  <si>
+    <t>GU/Prostate/High Risk/RTOG 9408 0 vs. 6 Months (Jones, NEJM 2011).pdf</t>
+  </si>
+  <si>
+    <t>http://meetinglibrary.asco.org/content/141191-159</t>
+  </si>
+  <si>
+    <t>GU/Prostate/High Risk/PCS III ADT with DE (Nabid, ASCO 2015).pdf</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/25534388</t>
+  </si>
+  <si>
+    <t>GU/Prostate/High Risk/RTOG 9910 4 vs 9 Mo. (Pisansky, JCO 2015).pdf</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/17531401?dopt=Abstract</t>
+  </si>
+  <si>
+    <t>GU/Prostate/High Risk/RTOG 9413 (Lawton, IJROBP 2007).pdf</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/18048817?dopt=Abstract</t>
+  </si>
+  <si>
+    <t>GU/Prostate/High Risk/GETUG-01.pdf</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/19516032?dopt=Abstract</t>
+  </si>
+  <si>
+    <t>GU/Prostate/High Risk/EORTC 22961 6 vs. 36 Mo (Bolla, NEJM 2009).pdf</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/29980331</t>
+  </si>
+  <si>
+    <t>GU/Prostate/High Risk/PCS IV 18 vs. 36 Mo (Nabid, Eur Urol 2018).pdf</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/25702876</t>
+  </si>
+  <si>
+    <t>GU/Prostate/High Risk/DART (Zapatero, Lancet Oncol, 2015).pdf</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/19167731</t>
+  </si>
+  <si>
+    <t>GU/Prostate/Salvage Prostate/SWOG 8794 (Thompson, 2009).pdf</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/28146658</t>
+  </si>
+  <si>
+    <t>GU/Prostate/Salvage Prostate/RTOG 9601 (Shipley, NEJM, 2017).pdf</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/15026399/</t>
+  </si>
+  <si>
+    <t>GU/Prostate/Salvage Prostate/Salvage RT (Stephenson AJ, 2004).pdf</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/17513807/</t>
+  </si>
+  <si>
+    <t>GU/Prostate/Salvage Prostate/Salvage RT (Stephenson AJ, 2007).pdf</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/24680359/</t>
+  </si>
+  <si>
+    <t>GU/Prostate/Salvage Prostate/ARO 96-02 (Wiegel, 2014).pdf</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/25445556/</t>
+  </si>
+  <si>
+    <t>GU/Prostate/Salvage Prostate/ARO 96-02 (Wiegel, 2015).pdf</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/25245445</t>
+  </si>
+  <si>
+    <t>GU/Prostate/Salvage Prostate/Node Positive Adjuvant RT (JCO 2014).pdf</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0923753419604023</t>
+  </si>
+  <si>
+    <t>GU/Prostate/Salvage Prostate/RADICALS Adjuvant RT (Parker, 2019).pdf</t>
+  </si>
+  <si>
+    <t>https://www.thelancet.com/journals/lanonc/article/PIIS1470-2045(20)30456-3/fulltext</t>
+  </si>
+  <si>
+    <t>GU/Prostate/Salvage Prostate/RAVES Ajvuvant vs Early Salvage (Kneebone, Lancet 2020).pdf</t>
+  </si>
+  <si>
+    <t>https://www.thelancet.com/journals/lancet/article/PIIS0140-6736(20)31952-8/fulltext</t>
+  </si>
+  <si>
+    <t>GU/Prostate/Salvage Prostate/ARTISTIC Adjuvant vs Early Salvage Metaanalysis (Vale, Lancet 2020).pdf</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/1331787</t>
+  </si>
+  <si>
+    <t>Lung/SCLC/Timing of Thoracic RT – NCIC (Murray, 1993).pdf</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/8381164</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/9920950</t>
+  </si>
+  <si>
+    <t>Lung/SCLC/Conventional vs. Hyperfractionation (Turrisi, 1999).pdf</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/28642008</t>
+  </si>
+  <si>
+    <t>Lung/SCLC/CONVERT (Lancent Oncol, 2017).pdf</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/25230595</t>
+  </si>
+  <si>
+    <t>Lung/SCLC/Thoracic RT – Meta-analysis (Pignon, 1992).pdf</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/10441603</t>
+  </si>
+  <si>
+    <t>Lung/SCLC/PCI, Meta-analysis (Auperin, 1999).pdf</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/17699816</t>
+  </si>
+  <si>
+    <t>Lung/SCLC/PCI for ES-SCLC (Slotman, 2007).pdf</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/28343976</t>
+  </si>
+  <si>
+    <t>Lung/SCLC/Japanese PCI ES-SCLC (Lancet Oncol, 2017).pdf</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/30219240/</t>
+  </si>
+  <si>
+    <t>Lung/SCLC/Dose and Fractionation Patterns (Farrell, 2018).pdf</t>
+  </si>
+  <si>
+    <t>https://www.nejm.org/doi/full/10.1056/NEJMoa1809064</t>
+  </si>
+  <si>
+    <t>Lung/SCLC/Atezo Plus CisEtop ES-SCLC (NEJM 2018).pdf</t>
+  </si>
+  <si>
+    <t>https://www.thelancet.com/journals/lancet/article/PIIS0140-6736(19)32222-6/fulltext</t>
+  </si>
+  <si>
+    <t>Lung/SCLC/CASPIAN Durvalumab ES-SCLC (Lancet 2019).pdf</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC6048892/</t>
+  </si>
+  <si>
+    <t>Lung/SCLC/ENCEPHALON WBRT vs SRS (Bernhardt, 2018).pdf</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/7677489</t>
+  </si>
+  <si>
+    <t>Lung/NSCLC/Early Stage/LCSG 821 (Ginsberg, 1995).pdf</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24982457</t>
+  </si>
+  <si>
+    <t>Lung/NSCLC/Early Stage/ACOSOG Z4032 (Fernando, 2014).pdf</t>
+  </si>
+  <si>
+    <t>https://www.cochranelibrary.com/cdsr/doi/10.1002/14651858.CD002142.pub4/full</t>
+  </si>
+  <si>
+    <t>Lung/NSCLC/Early Stage/PORT Meta-analysis (PORT Trialists, 2016).pdf</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/?term=Postoperative+Radiotherapy+for+Pathologic+N2+Non%E2%80%93Small-Cell+Lung+Cancer+Treated+With+Adjuvant+Chemotherapy%3A+A+Review+of+the+National+Cancer+Data+Base</t>
+  </si>
+  <si>
+    <t>Lung/NSCLC/Early Stage/PORT NCDB.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/18439766</t>
+  </si>
+  <si>
+    <t>Lung/NSCLC/Early Stage/ANITA Trial – impact of PORT (Douillard, 2008).pdf</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/20233825</t>
+  </si>
+  <si>
+    <t>Lung/NSCLC/Early Stage/SBRT (Timmerman, 2010).pdf</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/25981812</t>
+  </si>
+  <si>
+    <t>Lung/NSCLC/Early Stage/STARS_ROSEL (Chang, 2015).pdf</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/25074417</t>
+  </si>
+  <si>
+    <t>Lung/NSCLC/Early Stage/NCIC Hypofractionation (Cheung, 2014).pdf</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/27600155</t>
+  </si>
+  <si>
+    <t>Lung/NSCLC/Early Stage/SPACE Trial (Nyman, 2016).pdf</t>
+  </si>
+  <si>
+    <t>https://ascopubs.org/doi/full/10.1200/JCO.18.00622</t>
+  </si>
+  <si>
+    <t>Lung/NSCLC/Early Stage/RTOG 0813 Central SBRT (Bezjak, 2019).pdf</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/21903745</t>
+  </si>
+  <si>
+    <t>Lung/NSCLC/RTOG 9410.pdf</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/25601342</t>
+  </si>
+  <si>
+    <t>Lung/NSCLC/Advanced/RTOG 0617.pdf</t>
+  </si>
+  <si>
+    <t>http://ascopubs.org/doi/full/10.1200/JCO.2016.69.1378</t>
+  </si>
+  <si>
+    <t>Lung/NSCLC/Advanced/RTOG 0617 IMRT.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/17551299</t>
+  </si>
+  <si>
+    <t>Lung/NSCLC/Advanced/ENI vs. Involved Node (Yuan, 2007).pdf</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/19632716</t>
+  </si>
+  <si>
+    <t>Lung/NSCLC/Advanced/INT 0139 induction vs. definitive (Albain, 2009).pdf</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/26527789</t>
+  </si>
+  <si>
+    <t>Lung/NSCLC/Advanced/ESPATUE (Eberhardt, 2015).pdf</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/11241082</t>
+  </si>
+  <si>
+    <t>Lung/NSCLC/Advanced/INT 0160 – Superior Sulcus (Rusch, 2001).pdf</t>
+  </si>
+  <si>
+    <t>https://ascopubs.org/doi/10.1200/JCO.2005.55.405</t>
+  </si>
+  <si>
+    <t>Lung/NSCLC/Advanced/LAMP (Belani, 2005).pdf</t>
+  </si>
+  <si>
+    <t>https://www.annalsofoncology.org/article/S0923-7534(20)42362-2/fulltext</t>
+  </si>
+  <si>
+    <t>Lung/NSCLC/Advanced/LungART (ESMO, 2020).pdf</t>
+  </si>
+  <si>
+    <t>https://www.nejm.org/doi/full/10.1056/NEJMoa1809697</t>
+  </si>
+  <si>
+    <t>Lung/NSCLC/Advanced/PACIFIC (NEJM, 2018).pdf</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC1352604/</t>
+  </si>
+  <si>
+    <t>Sarcoma/NCI (Rosenberg, 1982).pdf</t>
+  </si>
+  <si>
+    <t>https://ascopubs.org/doi/pdf/10.1200/JCO.1996.14.3.859</t>
+  </si>
+  <si>
+    <t>Sarcoma/MSKCC (Pisters, 1996).pdf</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0140673602092929?via%3Dihub</t>
+  </si>
+  <si>
+    <t>Sarcoma/NCIC (O’Sullivan, 2002).pdf</t>
+  </si>
+  <si>
+    <t>https://acsjournals.onlinelibrary.wiley.com/doi/full/10.1002/cncr.23592</t>
+  </si>
+  <si>
+    <t>Sarcoma/Chemo Meta-analysis (Pervaiz, 2008).pdf</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/25667281/</t>
+  </si>
+  <si>
+    <t>Sarcoma/RTOG 0630 (Wang, 2015).pdf</t>
+  </si>
+  <si>
+    <t>https://www.redjournal.org/article/S0360-3016(16)30347-9/abstract</t>
+  </si>
+  <si>
+    <t>Sarcoma/Vortex (Astro, 2016).pdf</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/19574776/</t>
+  </si>
+  <si>
+    <t>Gyn/Endometrial/Brachy vs Obs in Stage I (Sorbe, 2009).pdf</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/19070889</t>
+  </si>
+  <si>
+    <t>Gyn/Endometrial/ASTEC –Pelvic Lymphadenctomy (ASTEC, 2009).pdf</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/14984936</t>
+  </si>
+  <si>
+    <t>Gyn/Endometrial/GOG 99 (Keys, 2004).pdf</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/21444867</t>
+  </si>
+  <si>
+    <t>Gyn/Endometrial/PORTEC 1 (Nout, 2011).pdf</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/20206777</t>
+  </si>
+  <si>
+    <t>Gyn/Endometrial/PORTEC 2 (Nout, 2010).pdf</t>
+  </si>
+  <si>
+    <t>https://ascopubs.org/doi/10.1200/JCO.18.01575</t>
+  </si>
+  <si>
+    <t>Gyn/Endometrial/GOG 249 (Randall, 2019).pdf</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/20619634</t>
+  </si>
+  <si>
+    <t>Gyn/Endometrial/MaNGO ILDE (Hogberg, 2010).pdf</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/16330675?dopt=Abstract</t>
+  </si>
+  <si>
+    <t>Gyn/Endometrial/GOG 122 (JCO 2006).pdf</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/29449189</t>
+  </si>
+  <si>
+    <t>Gyn/Endometrial/PORTEC 3 (Lancent Oncol 2018).pdf</t>
+  </si>
+  <si>
+    <t>https://www.nejm.org/doi/full/10.1056/NEJMoa1813181</t>
+  </si>
+  <si>
+    <t>Gyn/Endometrial/GOG 258 (Matei, 2019).pdf</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/28159465</t>
+  </si>
+  <si>
+    <t>Gyn/Endometrial/FIRES Trial (Lancent Onc 2017).pdf</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0090825899953878?via%3Dihub</t>
+  </si>
+  <si>
+    <t>Gyn/Cervical/GOG 92 (Sedlis, 1999).pdf</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/16427212/</t>
+  </si>
+  <si>
+    <t>Gyn/Cervical/GOG 92 (Rotman, 2006).pdf</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/10764420/</t>
+  </si>
+  <si>
+    <t>Gyn/Cervical/GOG 109 (Peters, 2000).pdf</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/15721417/</t>
+  </si>
+  <si>
+    <t>Gyn/Cervical/GOG 109 (Monk, 2005).pdf</t>
+  </si>
+  <si>
+    <t>https://www.nejm.org/doi/full/10.1056/NEJM199904153401503</t>
+  </si>
+  <si>
+    <t>Gyn/Cervical/GOG 123 (Keys, 1999).pdf</t>
+  </si>
+  <si>
+    <t>https://www.ajog.org/article/S0002-9378(07)00969-6/abstract</t>
+  </si>
+  <si>
+    <t>Gyn/Cervical/GOG 123 (Stehman, 2007).pdf</t>
+  </si>
+  <si>
+    <t>https://ascopubs.org/doi/pdf/10.1200/JCO.2004.07.197</t>
+  </si>
+  <si>
+    <t>Gyn/Cervical/RTOG 9001 (Eifel, 2004).pdf</t>
+  </si>
+  <si>
+    <t>https://www.nejm.org/doi/full/10.1056/NEJMoa1806395</t>
+  </si>
+  <si>
+    <t>Gyn/Cervical/LACC (Ramirez, 2018).pdf</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0140673697022502?via%3Dihub</t>
+  </si>
+  <si>
+    <t>Gyn/Cervical/Landoni_Milan (Lancet, 1997).pdf</t>
+  </si>
+  <si>
+    <t>https://ejgo.org/DOIx.php?id=10.3802/jgo.2017.28.e34</t>
+  </si>
+  <si>
+    <t>Gyn/Cervical/Landoni_Milan (J Gynecol Oncol, 2017).pdf</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/33443541/</t>
+  </si>
+  <si>
+    <t>Gyn/Cervical/STARS (Huang, 2021).pdf</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/2227541</t>
+  </si>
+  <si>
+    <t>Gyn/Vulvar/Surgical Pathological Factors (Heaps, 1990).pdf</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/1526880</t>
+  </si>
+  <si>
+    <t>Gyn/Vulvar/GOG 88 (Stehman, 1992).pdf</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/19701032</t>
+  </si>
+  <si>
+    <t>Gyn/Vulvar/GOG 37 (Homesley, 1986 and Kunos, 2009).pdf</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/18281661</t>
+  </si>
+  <si>
+    <t>Gyn/Vulvar/GROINSS-V (Van der Zee, 2008).pdf</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/9747823</t>
+  </si>
+  <si>
+    <t>Gyn/Vulvar/GOG 101 (Moore, 1998).pdf</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/11072157</t>
+  </si>
+  <si>
+    <t>Gyn/Vulvar/GOG 101 (Montana, 2000).pdf</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/22079361</t>
+  </si>
+  <si>
+    <t>Gyn/Vulvar/GOG 205 (Moore, 2012).pdf</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/30121234/</t>
+  </si>
+  <si>
+    <t>Gyn/Vulvar/GOG 270 (Dohopolski, 2018).pdf</t>
+  </si>
+  <si>
+    <t>https://www.gynecologiconcology-online.net/article/S0090-8258(20)31770-4/fulltext</t>
+  </si>
+  <si>
+    <t>Gyn/Vulvar/GROINSS-V2 (SGO, 2020).pdf</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/31109660/</t>
+  </si>
+  <si>
+    <t>Gyn/Vulvar/Margin Status (Grootenhuis, 2019).pdf</t>
+  </si>
+  <si>
+    <t>https://www.gynecologiconcology-online.net/article/S0090-8258(13)00769-5/fulltext</t>
+  </si>
+  <si>
+    <t>Gyn/Vulvar/56 Hy Positive Margins (Viswanathan, 2013).pdf</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/20818855</t>
+  </si>
+  <si>
+    <t>Heme/Lymphoma/Hodgkins/Favorable HD10 (Engert, 2010).pdf</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/20713848</t>
+  </si>
+  <si>
+    <t>Heme/Lymphoma/Hodgkins/Unfavorable HD11 (Eich, 2010).pdf</t>
+  </si>
+  <si>
+    <t>http://ascopubs.org/doi/abs/10.1200/JCO.2016.68.6394</t>
+  </si>
+  <si>
+    <t>Heme/Lymphoma/Hodgkins/EORTC H10 (Andre, 2017).pdf</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/25901426</t>
+  </si>
+  <si>
+    <t>Heme/Lymphoma/Hodgkins/UK Rapid (Radford, 2015).pdf</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/12802025</t>
+  </si>
+  <si>
+    <t>Heme/Lymphoma/Hodgkins/EORTC 20884 CR (Aleman, 2003).pdf</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/17097834</t>
+  </si>
+  <si>
+    <t>Heme/Lymphoma/Hodgkins/EORTC 20884 PR (Aleman, 2007).pdf</t>
+  </si>
+  <si>
+    <t>https://ascopubs.org/doi/pdf/10.1200/JCO.2015.65.4582</t>
+  </si>
+  <si>
+    <t>Heme/Lymphoma/Non-Hodgkin/SWOG 8736 (Stephens, 2016).pdf</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/24062391/</t>
+  </si>
+  <si>
+    <t>Heme/Lymphoma/Non-Hodgkin/RICOVER 60 (Held, 2013).pdf</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/24493716/</t>
+  </si>
+  <si>
+    <t>Heme/Lymphoma/Non-Hodgkin/RICOVER 60 (Held, 2014).pdf</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/21940214/</t>
+  </si>
+  <si>
+    <t>Heme/Lymphoma/Non-Hodgkin/MINT (Pfreundschuh, 2011).pdf</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/21664710/</t>
+  </si>
+  <si>
+    <t>Heme/Lymphoma/Non-Hodgkin/RT Deescalation (Lowry, 2011).pdf</t>
+  </si>
+  <si>
+    <t>https://www.thelancet.com/journals/lanonc/article/PIIS1470-2045(20)30686-0/fulltext</t>
+  </si>
+  <si>
+    <t>Heme/Lymphoma/Non-Hodgkin/FORT (Hoskin, 2021).pdf</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/17228021/https:/www.ncbi.nlm.nih.gov/pubmed/17228021/</t>
+  </si>
+  <si>
+    <t>Heme/Lymphoma/Non-Hodgkin/GELA (Bonnet, 2016).pdf</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/31868632</t>
+  </si>
+  <si>
+    <t>Heme/Lymphoma/Non-Hodgkin/FLYER (Poeschel, 2019).pdf</t>
+  </si>
+  <si>
+    <t>https://ascopubs.org/doi/abs/10.1200/JCO.20.00999</t>
+  </si>
+  <si>
+    <t>Heme/Lymphoma/Non-Hodgkin/NCTN S1001 (Persky, 2020).pdf</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24043739</t>
+  </si>
+  <si>
+    <t>Breast/DCIS/EORTC 10853 (Donker, 2013).pdf</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/21398619?dopt=Abstract</t>
+  </si>
+  <si>
+    <t>Breast/DCIS/Long term NSABP B17&amp;24 (Wapnir, 2011).pdf</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/22393101</t>
+  </si>
+  <si>
+    <t>Breast/DCIS/NSABP B24 (Rallred, 2012) .pdf</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/26371148</t>
+  </si>
+  <si>
+    <t>Breast/DCIS/ECOG E5194 (Solin, 2015).pdf</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/24346130</t>
+  </si>
+  <si>
+    <t>Breast/DCIS/Harvard DCIS (Wong, 2013).pdf</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/?term=rtog+9804</t>
+  </si>
+  <si>
+    <t>Breast/DCIS/RTOG 9804 (McCormick, 2015).pdf</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/23484825</t>
+  </si>
+  <si>
+    <t>Breast/DCIS/Risk of Ischemic Heart Disease (Darby, 2013).pdf</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/23641039</t>
+  </si>
+  <si>
+    <t>Breast/DCIS/Oncotype DCIS (Solin, 2013).pdf</t>
+  </si>
+  <si>
+    <t>https://www.practicalradonc.org/article/S1879-8500(16)30184-9/fulltext</t>
+  </si>
+  <si>
+    <t>Breast/DCIS/DCIS APBI Suitability (Correa, 2016).pdf</t>
+  </si>
+  <si>
+    <t>https://cancerres.aacrjournals.org/content/78/4_Supplement/GS5-08</t>
+  </si>
+  <si>
+    <t>Breast/DCIS/SweDCIS (Warnberg, 2018).pdf</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/30145393/</t>
+  </si>
+  <si>
+    <t>Breast/DCIS/Hypofrac Dosimetry (Patel, 2019).pdf</t>
+  </si>
+  <si>
+    <t>https://www.redjournal.org/article/S0360-3016(18)33690-3/fulltext</t>
+  </si>
+  <si>
+    <t>Breast/DCIS/RTOG 9804 12 yr (McCormick, 2018).pdf</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/12393820</t>
+  </si>
+  <si>
+    <t>Breast/Early Stage/NSABP B06 (Fisher, 2002).pdf</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/25500422</t>
+  </si>
+  <si>
+    <t>Breast/Early Stage/EORTC 22881  Boost - 20-yr follow-up (Lancet, 2015).pdf</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/23690420</t>
+  </si>
+  <si>
+    <t>Breast/Early Stage/CALGB 9343 (Hughes, 2013).pdf</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/25637340</t>
+  </si>
+  <si>
+    <t>Breast/Early Stage/PRIME II (Kunkler, 2015).pdf</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24055415</t>
+  </si>
+  <si>
+    <t>Breast/Early Stage/START AB Trials (Haviland, 2013).pdf</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/21304082</t>
+  </si>
+  <si>
+    <t>Breast/Early Stage/ACOSOGZ11 (Giuliano, 2011).pdf</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/25439688</t>
+  </si>
+  <si>
+    <t>Breast/Early Stage/AMAROS (Donker, 2014).pdf</t>
+  </si>
+  <si>
+    <t>http://www.nejm.org/doi/full/10.1056/NEJMoa1415340</t>
+  </si>
+  <si>
+    <t>Breast/Early Stage/MA20 (Whelan, 2015).pdf</t>
+  </si>
+  <si>
+    <t>http://www.nejm.org/doi/full/10.1056/NEJMoa1415369?af=R</t>
+  </si>
+  <si>
+    <t>Breast/Early Stage/EORTC 22922 (Poortmans, 2015).pdf</t>
+  </si>
+  <si>
+    <t>https://ascopubs.org/doi/pdf/10.1200/JCO.2002.11.101</t>
+  </si>
+  <si>
+    <t>Breast/Early Stage/NSABP B-21 (Fisher, 2016).pdf</t>
+  </si>
+  <si>
+    <t>https://www.nejm.org/doi/full/10.1056/NEJMoa1804710</t>
+  </si>
+  <si>
+    <t>Breast/Early Stage/TailorRX (Sparano, 2018).pdf</t>
+  </si>
+  <si>
+    <t>https://www.nejm.org/doi/full/10.1056/nejmoa0906260</t>
+  </si>
+  <si>
+    <t>Breast/Early Stage/Hypofrac (Whelan, 2010).pdf</t>
+  </si>
+  <si>
+    <t>https://www.thelancet.com/journals/lancet/article/PIIS0140-6736(20)30932-6/fulltext</t>
+  </si>
+  <si>
+    <t>Breast/Early Stage/UK Fast Forward (Brunt, 2020).pdf</t>
+  </si>
+  <si>
+    <t>https://www.thelancet.com/journals/lancet/article/PIIS0140-6736(17)31145-5/fulltext</t>
+  </si>
+  <si>
+    <t>Breast/Early Stage/UK Import Low (Coles, 2017).pdf</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/31813636/</t>
+  </si>
+  <si>
+    <t>Breast/Early Stage/NSABP B-39 (Vicini, 2019).pdf</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/9395428?dopt=Abstract</t>
+  </si>
+  <si>
+    <t>Breast/Locally Advanced/Danish 82b (Overgaard, 1997).pdf</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/10335782?dopt=Abstract</t>
+  </si>
+  <si>
+    <t>Breast/Locally Advanced/Danish 82c (Overgaard, 1999).pdf</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/15452182</t>
+  </si>
+  <si>
+    <t>Breast/Locally Advanced/NSABP Pooled analysis (Taghian, 2004).pdf</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/10920129</t>
+  </si>
+  <si>
+    <t>Breast/Locally Advanced/PMRT with Doxorubicin-Based chemo (Katz, 2000).pdf</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/23032615</t>
+  </si>
+  <si>
+    <t>Breast/Locally Advanced/NSABP B18 + B27 – Predictors of LRR (Mamounas, 2012).pdf</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/15570071</t>
+  </si>
+  <si>
+    <t>Breast/Locally Advanced/PMRT after neoadjuvant chemo (Huang, 2004).pdf</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/24439313</t>
+  </si>
+  <si>
+    <t>Breast/Locally Advanced/Chemo for Recurence (CALOR Trial, 2014).pdf</t>
+  </si>
+  <si>
+    <t>http://www.redjournal.org/article/S0360-3016(16)33272-2/fulltext?rss=yes</t>
+  </si>
+  <si>
+    <t>Breast/Locally Advanced/BCS for Recurence (PBI) RTOG 1014 Abstract.pdf</t>
+  </si>
+  <si>
+    <t>https://www.thelancet.com/journals/lanonc/article/PIIS1470-2045(18)30813-1/fulltext</t>
+  </si>
+  <si>
+    <t>Breast/Locally Advanced/Hypofrac PMRT Lancet (Wang 2019).pdf</t>
+  </si>
+  <si>
+    <t>Breast/Locally Advanced/CALOR Final Analysis (Wapnir 2018).pdf</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/10235156</t>
+  </si>
+  <si>
+    <t>GI/Esophageal/RTOG 8501 – Definitive Chemo-RT (Cooper, 1999).pdf</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/11870157</t>
+  </si>
+  <si>
+    <t>GI/Esophageal/INT 0123 – RT Dose Escalation (Minksy, 2002).pdf</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/26254683</t>
+  </si>
+  <si>
+    <t>GI/Esophageal/CROSS – Preop ChemoRT Lancet 2015.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24419108</t>
+  </si>
+  <si>
+    <t>GI/Esophageal/Patterns of Failure (Oppedijk, 2014).pdf</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/19139439</t>
+  </si>
+  <si>
+    <t>GI/Esophageal/POET – Is RT required for neoadjuvant therapy (Stahl, 2005).pdf</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/17401004</t>
+  </si>
+  <si>
+    <t>GI/Esophageal/FFCD 9103 – CRT +- Surgery (Bedenne, 2007).pdf</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/20009774</t>
+  </si>
+  <si>
+    <t>GI/Esophageal/Postoperative (Schreiber, 2010).pdf</t>
+  </si>
+  <si>
+    <t>https://ascopubs.org/doi/abs/10.1200/JCO.20.03614</t>
+  </si>
+  <si>
+    <t>GI/Esophageal/CROSS 10 Yr update (Eyck 2021).pdf</t>
+  </si>
+  <si>
+    <t>https://ascopubs.org/doi/abs/10.1200/JCO.2020.38.4_suppl.281</t>
+  </si>
+  <si>
+    <t>GI/Esophageal/ARTDECO (ASCO 2020).pdf</t>
+  </si>
+  <si>
+    <t>GI/Esophageal/Chinese Chemo vs CRT (Wang 2021).pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1099,7 +2489,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1143,6 +2533,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1457,31 +2848,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CM240"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:CO242"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B207" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="G217" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D239" sqref="D239"/>
+      <selection pane="bottomRight" activeCell="G224" sqref="G224"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="13" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="67.42578125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="47.140625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="149.140625" style="4" customWidth="1"/>
-    <col min="8" max="91" width="9.140625" style="13"/>
-    <col min="92" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="3.6640625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="23.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="67.5" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="4" customWidth="1"/>
+    <col min="6" max="6" width="47.1640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="82.6640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="45.83203125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="53.1640625" style="4" customWidth="1"/>
+    <col min="10" max="93" width="9.1640625" style="13"/>
+    <col min="94" max="16384" width="9.1640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H1" s="21"/>
+    </row>
+    <row r="2" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="15" t="s">
         <v>42</v>
       </c>
@@ -1500,8 +2896,9 @@
       <c r="G2" s="15" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="3" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I2" s="21"/>
+    </row>
+    <row r="3" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="5" t="s">
         <v>34</v>
       </c>
@@ -1516,8 +2913,14 @@
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H3" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
         <v>34</v>
       </c>
@@ -1532,8 +2935,14 @@
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H4" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="5" t="s">
         <v>34</v>
       </c>
@@ -1548,8 +2957,14 @@
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H5" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="5" t="s">
         <v>34</v>
       </c>
@@ -1564,8 +2979,14 @@
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H6" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
         <v>34</v>
       </c>
@@ -1580,8 +3001,14 @@
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H7" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
         <v>34</v>
       </c>
@@ -1596,8 +3023,14 @@
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
-    </row>
-    <row r="9" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H8" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="5" t="s">
         <v>34</v>
       </c>
@@ -1612,8 +3045,14 @@
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H9" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
         <v>34</v>
       </c>
@@ -1628,8 +3067,14 @@
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
-    </row>
-    <row r="11" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H10" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="5" t="s">
         <v>34</v>
       </c>
@@ -1644,8 +3089,14 @@
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
-    </row>
-    <row r="12" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H11" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="5" t="s">
         <v>34</v>
       </c>
@@ -1660,8 +3111,14 @@
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
-    </row>
-    <row r="13" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H12" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="5" t="s">
         <v>34</v>
       </c>
@@ -1676,8 +3133,14 @@
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
-    </row>
-    <row r="14" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H13" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="5" t="s">
         <v>34</v>
       </c>
@@ -1692,8 +3155,14 @@
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
-    </row>
-    <row r="15" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H14" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="5" t="s">
         <v>34</v>
       </c>
@@ -1708,8 +3177,14 @@
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
-    </row>
-    <row r="16" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H15" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="5" t="s">
         <v>34</v>
       </c>
@@ -1724,8 +3199,14 @@
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
-    </row>
-    <row r="17" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H16" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="5" t="s">
         <v>34</v>
       </c>
@@ -1740,8 +3221,14 @@
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
-    </row>
-    <row r="18" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H17" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="5" t="s">
         <v>34</v>
       </c>
@@ -1756,8 +3243,14 @@
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
-    </row>
-    <row r="19" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H18" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="5" t="s">
         <v>34</v>
       </c>
@@ -1772,8 +3265,14 @@
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
-    </row>
-    <row r="20" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H19" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="5" t="s">
         <v>34</v>
       </c>
@@ -1788,8 +3287,14 @@
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
-    </row>
-    <row r="21" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H20" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="5" t="s">
         <v>34</v>
       </c>
@@ -1804,8 +3309,14 @@
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
-    </row>
-    <row r="22" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H21" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="5" t="s">
         <v>34</v>
       </c>
@@ -1820,8 +3331,14 @@
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
-    </row>
-    <row r="23" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H22" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="5" t="s">
         <v>34</v>
       </c>
@@ -1836,8 +3353,14 @@
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
-    </row>
-    <row r="24" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H23" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="5" t="s">
         <v>34</v>
       </c>
@@ -1852,8 +3375,14 @@
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
-    </row>
-    <row r="25" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H24" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="5" t="s">
         <v>34</v>
       </c>
@@ -1868,8 +3397,14 @@
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
-    </row>
-    <row r="26" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H25" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="6" t="s">
         <v>35</v>
       </c>
@@ -1884,8 +3419,14 @@
       </c>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
-    </row>
-    <row r="27" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H26" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="6" t="s">
         <v>35</v>
       </c>
@@ -1900,8 +3441,14 @@
       </c>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
-    </row>
-    <row r="28" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H27" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="6" t="s">
         <v>35</v>
       </c>
@@ -1916,8 +3463,14 @@
       </c>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
-    </row>
-    <row r="29" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H28" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="6" t="s">
         <v>35</v>
       </c>
@@ -1932,8 +3485,14 @@
       </c>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
-    </row>
-    <row r="30" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H29" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="6" t="s">
         <v>35</v>
       </c>
@@ -1948,8 +3507,14 @@
       </c>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
-    </row>
-    <row r="31" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H30" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="6" t="s">
         <v>35</v>
       </c>
@@ -1964,8 +3529,14 @@
       </c>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
-    </row>
-    <row r="32" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H31" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="6" t="s">
         <v>35</v>
       </c>
@@ -1980,8 +3551,14 @@
       </c>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
-    </row>
-    <row r="33" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H32" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="6" t="s">
         <v>35</v>
       </c>
@@ -1996,8 +3573,14 @@
       </c>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
-    </row>
-    <row r="34" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H33" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="6" t="s">
         <v>35</v>
       </c>
@@ -2012,8 +3595,14 @@
       </c>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
-    </row>
-    <row r="35" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H34" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="6" t="s">
         <v>35</v>
       </c>
@@ -2028,8 +3617,14 @@
       </c>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
-    </row>
-    <row r="36" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H35" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="6" t="s">
         <v>35</v>
       </c>
@@ -2044,8 +3639,14 @@
       </c>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
-    </row>
-    <row r="37" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H36" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="6" t="s">
         <v>35</v>
       </c>
@@ -2060,8 +3661,14 @@
       </c>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
-    </row>
-    <row r="38" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H37" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="6" t="s">
         <v>35</v>
       </c>
@@ -2076,8 +3683,14 @@
       </c>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
-    </row>
-    <row r="39" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H38" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="6" t="s">
         <v>35</v>
       </c>
@@ -2092,8 +3705,14 @@
       </c>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
-    </row>
-    <row r="40" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H39" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="6" t="s">
         <v>35</v>
       </c>
@@ -2108,8 +3727,14 @@
       </c>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
-    </row>
-    <row r="41" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H40" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="6" t="s">
         <v>35</v>
       </c>
@@ -2124,8 +3749,14 @@
       </c>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
-    </row>
-    <row r="42" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H41" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="6" t="s">
         <v>35</v>
       </c>
@@ -2140,8 +3771,14 @@
       </c>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
-    </row>
-    <row r="43" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H42" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="6" t="s">
         <v>35</v>
       </c>
@@ -2156,8 +3793,14 @@
       </c>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
-    </row>
-    <row r="44" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H43" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="6" t="s">
         <v>35</v>
       </c>
@@ -2172,8 +3815,14 @@
       </c>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
-    </row>
-    <row r="45" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H44" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="6" t="s">
         <v>35</v>
       </c>
@@ -2188,8 +3837,14 @@
       </c>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
-    </row>
-    <row r="46" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H45" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="6" t="s">
         <v>35</v>
       </c>
@@ -2204,8 +3859,14 @@
       </c>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
-    </row>
-    <row r="47" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H46" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="6" t="s">
         <v>35</v>
       </c>
@@ -2220,8 +3881,14 @@
       </c>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
-    </row>
-    <row r="48" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H47" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="6" t="s">
         <v>35</v>
       </c>
@@ -2236,8 +3903,14 @@
       </c>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
-    </row>
-    <row r="49" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H48" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="6" t="s">
         <v>35</v>
       </c>
@@ -2252,8 +3925,14 @@
       </c>
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
-    </row>
-    <row r="50" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H49" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="6" t="s">
         <v>35</v>
       </c>
@@ -2268,8 +3947,14 @@
       </c>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
-    </row>
-    <row r="51" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H50" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="6" t="s">
         <v>35</v>
       </c>
@@ -2284,8 +3969,14 @@
       </c>
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
-    </row>
-    <row r="52" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H51" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="6" t="s">
         <v>35</v>
       </c>
@@ -2300,8 +3991,14 @@
       </c>
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
-    </row>
-    <row r="53" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H52" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="I52" s="5" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="6" t="s">
         <v>35</v>
       </c>
@@ -2316,8 +4013,14 @@
       </c>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
-    </row>
-    <row r="54" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H53" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="6" t="s">
         <v>35</v>
       </c>
@@ -2332,8 +4035,14 @@
       </c>
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
-    </row>
-    <row r="55" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H54" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="I54" s="5" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="6" t="s">
         <v>35</v>
       </c>
@@ -2348,8 +4057,14 @@
       </c>
       <c r="F55" s="5"/>
       <c r="G55" s="5"/>
-    </row>
-    <row r="56" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H55" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="6" t="s">
         <v>35</v>
       </c>
@@ -2364,8 +4079,14 @@
       </c>
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
-    </row>
-    <row r="57" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H56" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="I56" s="5" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="6" t="s">
         <v>35</v>
       </c>
@@ -2380,8 +4101,14 @@
       </c>
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
-    </row>
-    <row r="58" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H57" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="I57" s="5" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="6" t="s">
         <v>35</v>
       </c>
@@ -2396,8 +4123,14 @@
       </c>
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
-    </row>
-    <row r="59" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H58" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="I58" s="5" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="6" t="s">
         <v>36</v>
       </c>
@@ -2412,8 +4145,14 @@
       </c>
       <c r="F59" s="5"/>
       <c r="G59" s="5"/>
-    </row>
-    <row r="60" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H59" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="6" t="s">
         <v>36</v>
       </c>
@@ -2428,8 +4167,14 @@
       </c>
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
-    </row>
-    <row r="61" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H60" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="I60" s="5" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="6" t="s">
         <v>36</v>
       </c>
@@ -2444,8 +4189,14 @@
       </c>
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
-    </row>
-    <row r="62" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H61" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="I61" s="5" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="6" t="s">
         <v>36</v>
       </c>
@@ -2460,8 +4211,14 @@
       </c>
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
-    </row>
-    <row r="63" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H62" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="I62" s="5" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="6" t="s">
         <v>36</v>
       </c>
@@ -2476,8 +4233,14 @@
       </c>
       <c r="F63" s="5"/>
       <c r="G63" s="5"/>
-    </row>
-    <row r="64" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H63" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="I63" s="5" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="6" t="s">
         <v>36</v>
       </c>
@@ -2492,8 +4255,14 @@
       </c>
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
-    </row>
-    <row r="65" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H64" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="I64" s="5" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="6" t="s">
         <v>36</v>
       </c>
@@ -2508,8 +4277,14 @@
       </c>
       <c r="F65" s="5"/>
       <c r="G65" s="5"/>
-    </row>
-    <row r="66" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H65" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="I65" s="5" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B66" s="6" t="s">
         <v>36</v>
       </c>
@@ -2524,8 +4299,14 @@
       </c>
       <c r="F66" s="5"/>
       <c r="G66" s="5"/>
-    </row>
-    <row r="67" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H66" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="I66" s="5" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B67" s="6" t="s">
         <v>36</v>
       </c>
@@ -2540,8 +4321,14 @@
       </c>
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
-    </row>
-    <row r="68" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H67" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="I67" s="5" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B68" s="6" t="s">
         <v>36</v>
       </c>
@@ -2556,8 +4343,14 @@
       </c>
       <c r="F68" s="5"/>
       <c r="G68" s="5"/>
-    </row>
-    <row r="69" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H68" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="I68" s="5" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="6" t="s">
         <v>36</v>
       </c>
@@ -2572,8 +4365,14 @@
       </c>
       <c r="F69" s="5"/>
       <c r="G69" s="5"/>
-    </row>
-    <row r="70" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H69" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="I69" s="5" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="6" t="s">
         <v>36</v>
       </c>
@@ -2588,8 +4387,14 @@
       </c>
       <c r="F70" s="5"/>
       <c r="G70" s="5"/>
-    </row>
-    <row r="71" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H70" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="I70" s="5" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="6" t="s">
         <v>36</v>
       </c>
@@ -2604,8 +4409,14 @@
       </c>
       <c r="F71" s="5"/>
       <c r="G71" s="5"/>
-    </row>
-    <row r="72" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H71" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="I71" s="5" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="6" t="s">
         <v>36</v>
       </c>
@@ -2620,8 +4431,14 @@
       </c>
       <c r="F72" s="5"/>
       <c r="G72" s="5"/>
-    </row>
-    <row r="73" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H72" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="I72" s="5" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="6" t="s">
         <v>36</v>
       </c>
@@ -2636,8 +4453,14 @@
       </c>
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
-    </row>
-    <row r="74" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H73" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="I73" s="5" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="6" t="s">
         <v>36</v>
       </c>
@@ -2652,8 +4475,14 @@
       </c>
       <c r="F74" s="5"/>
       <c r="G74" s="5"/>
-    </row>
-    <row r="75" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H74" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="I74" s="5" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="6" t="s">
         <v>36</v>
       </c>
@@ -2668,8 +4497,14 @@
       </c>
       <c r="F75" s="5"/>
       <c r="G75" s="5"/>
-    </row>
-    <row r="76" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H75" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="I75" s="5" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="6" t="s">
         <v>36</v>
       </c>
@@ -2684,8 +4519,14 @@
       </c>
       <c r="F76" s="5"/>
       <c r="G76" s="5"/>
-    </row>
-    <row r="77" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H76" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="I76" s="5" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="6" t="s">
         <v>36</v>
       </c>
@@ -2700,8 +4541,14 @@
       </c>
       <c r="F77" s="5"/>
       <c r="G77" s="5"/>
-    </row>
-    <row r="78" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H77" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="I77" s="5" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="6" t="s">
         <v>36</v>
       </c>
@@ -2716,8 +4563,14 @@
       </c>
       <c r="F78" s="5"/>
       <c r="G78" s="5"/>
-    </row>
-    <row r="79" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H78" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="I78" s="5" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="6" t="s">
         <v>36</v>
       </c>
@@ -2732,8 +4585,14 @@
       </c>
       <c r="F79" s="5"/>
       <c r="G79" s="5"/>
-    </row>
-    <row r="80" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H79" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="I79" s="5" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="6" t="s">
         <v>36</v>
       </c>
@@ -2748,8 +4607,14 @@
       </c>
       <c r="F80" s="5"/>
       <c r="G80" s="5"/>
-    </row>
-    <row r="81" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H80" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="I80" s="5" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="6" t="s">
         <v>36</v>
       </c>
@@ -2764,8 +4629,14 @@
       </c>
       <c r="F81" s="5"/>
       <c r="G81" s="5"/>
-    </row>
-    <row r="82" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H81" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="I81" s="5" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="6" t="s">
         <v>36</v>
       </c>
@@ -2780,8 +4651,14 @@
       </c>
       <c r="F82" s="5"/>
       <c r="G82" s="5"/>
-    </row>
-    <row r="83" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H82" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="I82" s="5" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="6" t="s">
         <v>36</v>
       </c>
@@ -2796,8 +4673,14 @@
       </c>
       <c r="F83" s="5"/>
       <c r="G83" s="5"/>
-    </row>
-    <row r="84" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H83" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="I83" s="5" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="6" t="s">
         <v>36</v>
       </c>
@@ -2812,8 +4695,14 @@
       </c>
       <c r="F84" s="5"/>
       <c r="G84" s="5"/>
-    </row>
-    <row r="85" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H84" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="I84" s="5" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="6" t="s">
         <v>36</v>
       </c>
@@ -2828,8 +4717,14 @@
       </c>
       <c r="F85" s="5"/>
       <c r="G85" s="5"/>
-    </row>
-    <row r="86" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H85" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="I85" s="5" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B86" s="6" t="s">
         <v>36</v>
       </c>
@@ -2844,8 +4739,14 @@
       </c>
       <c r="F86" s="5"/>
       <c r="G86" s="5"/>
-    </row>
-    <row r="87" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H86" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="I86" s="5" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="6" t="s">
         <v>36</v>
       </c>
@@ -2860,8 +4761,14 @@
       </c>
       <c r="F87" s="5"/>
       <c r="G87" s="5"/>
-    </row>
-    <row r="88" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H87" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="I87" s="5" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B88" s="6" t="s">
         <v>36</v>
       </c>
@@ -2876,8 +4783,14 @@
       </c>
       <c r="F88" s="5"/>
       <c r="G88" s="5"/>
-    </row>
-    <row r="89" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H88" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="I88" s="5" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="6" t="s">
         <v>36</v>
       </c>
@@ -2892,8 +4805,14 @@
       </c>
       <c r="F89" s="5"/>
       <c r="G89" s="5"/>
-    </row>
-    <row r="90" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H89" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="I89" s="5" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B90" s="6" t="s">
         <v>36</v>
       </c>
@@ -2908,8 +4827,14 @@
       </c>
       <c r="F90" s="5"/>
       <c r="G90" s="5"/>
-    </row>
-    <row r="91" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H90" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="I90" s="5" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B91" s="6" t="s">
         <v>36</v>
       </c>
@@ -2928,8 +4853,14 @@
       <c r="G91" s="5" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="92" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H91" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="I91" s="5" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B92" s="6" t="s">
         <v>36</v>
       </c>
@@ -2948,8 +4879,14 @@
       <c r="G92" s="5" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="93" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H92" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="I92" s="5" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B93" s="6" t="s">
         <v>36</v>
       </c>
@@ -2968,8 +4905,14 @@
       <c r="G93" s="5" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="94" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H93" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="I93" s="5" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="6" t="s">
         <v>36</v>
       </c>
@@ -2988,8 +4931,14 @@
       <c r="G94" s="5" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="95" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H94" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="I94" s="5" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95" s="6" t="s">
         <v>36</v>
       </c>
@@ -3008,8 +4957,14 @@
       <c r="G95" s="6" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="96" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H95" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="I95" s="5" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B96" s="6" t="s">
         <v>36</v>
       </c>
@@ -3028,8 +4983,14 @@
       <c r="G96" s="6" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="97" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H96" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="I96" s="5" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B97" s="6" t="s">
         <v>36</v>
       </c>
@@ -3048,8 +5009,14 @@
       <c r="G97" s="6" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="98" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H97" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="I97" s="5" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B98" s="6" t="s">
         <v>36</v>
       </c>
@@ -3068,8 +5035,14 @@
       <c r="G98" s="6" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="99" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H98" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="I98" s="5" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="6" t="s">
         <v>36</v>
       </c>
@@ -3088,8 +5061,14 @@
       <c r="G99" s="6" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="100" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H99" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="I99" s="5" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B100" s="6" t="s">
         <v>36</v>
       </c>
@@ -3108,8 +5087,14 @@
       <c r="G100" s="6" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="101" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H100" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="I100" s="5" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B101" s="6" t="s">
         <v>0</v>
       </c>
@@ -3124,8 +5109,14 @@
       </c>
       <c r="F101" s="5"/>
       <c r="G101" s="5"/>
-    </row>
-    <row r="102" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H101" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="I101" s="5" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B102" s="6" t="s">
         <v>0</v>
       </c>
@@ -3140,8 +5131,14 @@
       </c>
       <c r="F102" s="5"/>
       <c r="G102" s="5"/>
-    </row>
-    <row r="103" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H102" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="I102" s="5" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B103" s="6" t="s">
         <v>0</v>
       </c>
@@ -3156,8 +5153,14 @@
       </c>
       <c r="F103" s="5"/>
       <c r="G103" s="5"/>
-    </row>
-    <row r="104" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H103" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="I103" s="5" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B104" s="6" t="s">
         <v>0</v>
       </c>
@@ -3172,8 +5175,14 @@
       </c>
       <c r="F104" s="5"/>
       <c r="G104" s="5"/>
-    </row>
-    <row r="105" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H104" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="I104" s="5" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="105" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B105" s="6" t="s">
         <v>0</v>
       </c>
@@ -3188,8 +5197,14 @@
       </c>
       <c r="F105" s="5"/>
       <c r="G105" s="5"/>
-    </row>
-    <row r="106" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H105" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="I105" s="5" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="106" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B106" s="6" t="s">
         <v>0</v>
       </c>
@@ -3204,8 +5219,14 @@
       </c>
       <c r="F106" s="5"/>
       <c r="G106" s="5"/>
-    </row>
-    <row r="107" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H106" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="I106" s="5" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="107" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B107" s="6" t="s">
         <v>0</v>
       </c>
@@ -3220,8 +5241,14 @@
       </c>
       <c r="F107" s="5"/>
       <c r="G107" s="5"/>
-    </row>
-    <row r="108" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H107" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="I107" s="5" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B108" s="6" t="s">
         <v>0</v>
       </c>
@@ -3235,8 +5262,14 @@
         <v>1</v>
       </c>
       <c r="G108" s="5"/>
-    </row>
-    <row r="109" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H108" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="I108" s="5" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B109" s="6" t="s">
         <v>0</v>
       </c>
@@ -3251,8 +5284,14 @@
       </c>
       <c r="F109" s="18"/>
       <c r="G109" s="5"/>
-    </row>
-    <row r="110" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H109" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="I109" s="5" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B110" s="6" t="s">
         <v>0</v>
       </c>
@@ -3267,8 +5306,14 @@
       </c>
       <c r="F110" s="18"/>
       <c r="G110" s="5"/>
-    </row>
-    <row r="111" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H110" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="I110" s="5" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="111" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B111" s="6" t="s">
         <v>0</v>
       </c>
@@ -3283,8 +5328,14 @@
       </c>
       <c r="F111" s="18"/>
       <c r="G111" s="5"/>
-    </row>
-    <row r="112" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H111" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="I111" s="5" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="112" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B112" s="6" t="s">
         <v>0</v>
       </c>
@@ -3299,8 +5350,14 @@
       </c>
       <c r="F112" s="17"/>
       <c r="G112" s="19"/>
-    </row>
-    <row r="113" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H112" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="I112" s="5" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="113" spans="2:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B113" s="6" t="s">
         <v>0</v>
       </c>
@@ -3315,8 +5372,14 @@
       </c>
       <c r="F113" s="5"/>
       <c r="G113" s="5"/>
-    </row>
-    <row r="114" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H113" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="I113" s="5" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="114" spans="2:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B114" s="6" t="s">
         <v>0</v>
       </c>
@@ -3331,8 +5394,14 @@
       </c>
       <c r="F114" s="5"/>
       <c r="G114" s="5"/>
-    </row>
-    <row r="115" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H114" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="I114" s="5" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="115" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B115" s="6" t="s">
         <v>0</v>
       </c>
@@ -3347,8 +5416,14 @@
       </c>
       <c r="F115" s="5"/>
       <c r="G115" s="5"/>
-    </row>
-    <row r="116" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H115" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="I115" s="5" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="116" spans="2:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B116" s="6" t="s">
         <v>0</v>
       </c>
@@ -3363,8 +5438,14 @@
       </c>
       <c r="F116" s="5"/>
       <c r="G116" s="5"/>
-    </row>
-    <row r="117" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H116" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="I116" s="5" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="117" spans="2:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B117" s="6" t="s">
         <v>0</v>
       </c>
@@ -3379,8 +5460,14 @@
       </c>
       <c r="F117" s="5"/>
       <c r="G117" s="5"/>
-    </row>
-    <row r="118" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H117" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="I117" s="5" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="118" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B118" s="6" t="s">
         <v>0</v>
       </c>
@@ -3395,8 +5482,14 @@
       </c>
       <c r="F118" s="5"/>
       <c r="G118" s="5"/>
-    </row>
-    <row r="119" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H118" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="I118" s="5" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="119" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B119" s="6" t="s">
         <v>0</v>
       </c>
@@ -3411,8 +5504,14 @@
       </c>
       <c r="F119" s="5"/>
       <c r="G119" s="5"/>
-    </row>
-    <row r="120" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H119" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="I119" s="5" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="120" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B120" s="6" t="s">
         <v>0</v>
       </c>
@@ -3427,8 +5526,14 @@
       </c>
       <c r="F120" s="5"/>
       <c r="G120" s="5"/>
-    </row>
-    <row r="121" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H120" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="I120" s="5" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="121" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B121" s="6" t="s">
         <v>0</v>
       </c>
@@ -3443,8 +5548,14 @@
       </c>
       <c r="F121" s="5"/>
       <c r="G121" s="5"/>
-    </row>
-    <row r="122" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H121" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="I121" s="5" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="122" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B122" s="6" t="s">
         <v>0</v>
       </c>
@@ -3459,8 +5570,14 @@
       </c>
       <c r="F122" s="5"/>
       <c r="G122" s="5"/>
-    </row>
-    <row r="123" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H122" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="I122" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="123" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B123" s="6" t="s">
         <v>0</v>
       </c>
@@ -3475,8 +5592,14 @@
       </c>
       <c r="F123" s="5"/>
       <c r="G123" s="5"/>
-    </row>
-    <row r="124" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H123" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="I123" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="124" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B124" s="6" t="s">
         <v>0</v>
       </c>
@@ -3491,8 +5614,14 @@
       </c>
       <c r="F124" s="5"/>
       <c r="G124" s="5"/>
-    </row>
-    <row r="125" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H124" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="I124" s="5" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="125" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B125" s="6" t="s">
         <v>0</v>
       </c>
@@ -3507,8 +5636,14 @@
       </c>
       <c r="F125" s="5"/>
       <c r="G125" s="5"/>
-    </row>
-    <row r="126" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H125" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="I125" s="5" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="126" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B126" s="6" t="s">
         <v>0</v>
       </c>
@@ -3523,8 +5658,14 @@
       </c>
       <c r="F126" s="5"/>
       <c r="G126" s="5"/>
-    </row>
-    <row r="127" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H126" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="I126" s="5" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="127" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B127" s="6" t="s">
         <v>0</v>
       </c>
@@ -3539,8 +5680,14 @@
       </c>
       <c r="F127" s="5"/>
       <c r="G127" s="5"/>
-    </row>
-    <row r="128" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H127" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="I127" s="5" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="128" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B128" s="6" t="s">
         <v>0</v>
       </c>
@@ -3555,8 +5702,14 @@
       </c>
       <c r="F128" s="5"/>
       <c r="G128" s="5"/>
-    </row>
-    <row r="129" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H128" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="I128" s="5" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="129" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B129" s="6" t="s">
         <v>0</v>
       </c>
@@ -3571,8 +5724,14 @@
       </c>
       <c r="F129" s="5"/>
       <c r="G129" s="5"/>
-    </row>
-    <row r="130" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H129" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="I129" s="5" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="130" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B130" s="6" t="s">
         <v>0</v>
       </c>
@@ -3587,8 +5746,14 @@
       </c>
       <c r="F130" s="5"/>
       <c r="G130" s="5"/>
-    </row>
-    <row r="131" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H130" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="I130" s="5" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="131" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B131" s="6" t="s">
         <v>0</v>
       </c>
@@ -3603,8 +5768,14 @@
       </c>
       <c r="F131" s="5"/>
       <c r="G131" s="5"/>
-    </row>
-    <row r="132" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H131" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="I131" s="5" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="132" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B132" s="6" t="s">
         <v>0</v>
       </c>
@@ -3619,8 +5790,14 @@
       </c>
       <c r="F132" s="5"/>
       <c r="G132" s="5"/>
-    </row>
-    <row r="133" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H132" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="I132" s="5" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="133" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B133" s="6" t="s">
         <v>17</v>
       </c>
@@ -3635,8 +5812,14 @@
       </c>
       <c r="F133" s="5"/>
       <c r="G133" s="5"/>
-    </row>
-    <row r="134" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H133" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="I133" s="5" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="134" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B134" s="6" t="s">
         <v>17</v>
       </c>
@@ -3651,8 +5834,14 @@
       </c>
       <c r="F134" s="5"/>
       <c r="G134" s="5"/>
-    </row>
-    <row r="135" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H134" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="I134" s="5" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="135" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B135" s="6" t="s">
         <v>17</v>
       </c>
@@ -3667,8 +5856,14 @@
       </c>
       <c r="F135" s="5"/>
       <c r="G135" s="5"/>
-    </row>
-    <row r="136" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H135" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="I135" s="5" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="136" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B136" s="6" t="s">
         <v>17</v>
       </c>
@@ -3683,8 +5878,14 @@
       </c>
       <c r="F136" s="5"/>
       <c r="G136" s="5"/>
-    </row>
-    <row r="137" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H136" s="5" t="s">
+        <v>591</v>
+      </c>
+      <c r="I136" s="5" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="137" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B137" s="6" t="s">
         <v>17</v>
       </c>
@@ -3699,8 +5900,14 @@
       </c>
       <c r="F137" s="5"/>
       <c r="G137" s="5"/>
-    </row>
-    <row r="138" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H137" s="5" t="s">
+        <v>593</v>
+      </c>
+      <c r="I137" s="5" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="138" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B138" s="6" t="s">
         <v>17</v>
       </c>
@@ -3715,8 +5922,14 @@
       </c>
       <c r="F138" s="5"/>
       <c r="G138" s="5"/>
-    </row>
-    <row r="139" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H138" s="5" t="s">
+        <v>595</v>
+      </c>
+      <c r="I138" s="5" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="139" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B139" s="6" t="s">
         <v>38</v>
       </c>
@@ -3735,8 +5948,14 @@
       <c r="G139" s="5" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="140" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H139" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="I139" s="5" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="140" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B140" s="6" t="s">
         <v>38</v>
       </c>
@@ -3755,8 +5974,14 @@
       <c r="G140" s="6" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="141" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H140" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="I140" s="5" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="141" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B141" s="6" t="s">
         <v>38</v>
       </c>
@@ -3775,8 +6000,14 @@
       <c r="G141" s="6" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="142" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H141" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="I141" s="5" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="142" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B142" s="6" t="s">
         <v>38</v>
       </c>
@@ -3795,8 +6026,14 @@
       <c r="G142" s="6" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="143" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H142" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="I142" s="5" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="143" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B143" s="6" t="s">
         <v>38</v>
       </c>
@@ -3815,8 +6052,14 @@
       <c r="G143" s="6" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="144" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H143" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="I143" s="5" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="144" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B144" s="6" t="s">
         <v>38</v>
       </c>
@@ -3835,8 +6078,14 @@
       <c r="G144" s="6" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="145" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H144" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="I144" s="5" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="145" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B145" s="6" t="s">
         <v>38</v>
       </c>
@@ -3855,8 +6104,14 @@
       <c r="G145" s="6" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="146" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H145" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="I145" s="5" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="146" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B146" s="6" t="s">
         <v>38</v>
       </c>
@@ -3875,8 +6130,14 @@
       <c r="G146" s="6" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="147" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H146" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="I146" s="5" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="147" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B147" s="6" t="s">
         <v>38</v>
       </c>
@@ -3895,8 +6156,14 @@
       <c r="G147" s="6" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="148" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H147" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="I147" s="5" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="148" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B148" s="6" t="s">
         <v>38</v>
       </c>
@@ -3915,8 +6182,14 @@
       <c r="G148" s="6" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="149" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H148" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="I148" s="5" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="149" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B149" s="6" t="s">
         <v>38</v>
       </c>
@@ -3935,8 +6208,14 @@
       <c r="G149" s="6" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="150" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H149" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="I149" s="5" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="150" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B150" s="6" t="s">
         <v>38</v>
       </c>
@@ -3951,8 +6230,14 @@
       </c>
       <c r="F150" s="5"/>
       <c r="G150" s="5"/>
-    </row>
-    <row r="151" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H150" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="I150" s="5" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="151" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B151" s="6" t="s">
         <v>38</v>
       </c>
@@ -3967,8 +6252,14 @@
       </c>
       <c r="F151" s="5"/>
       <c r="G151" s="5"/>
-    </row>
-    <row r="152" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H151" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="I151" s="5" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="152" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B152" s="6" t="s">
         <v>38</v>
       </c>
@@ -3983,8 +6274,14 @@
       </c>
       <c r="F152" s="5"/>
       <c r="G152" s="5"/>
-    </row>
-    <row r="153" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H152" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="I152" s="5" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="153" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B153" s="6" t="s">
         <v>38</v>
       </c>
@@ -3999,8 +6296,14 @@
       </c>
       <c r="F153" s="5"/>
       <c r="G153" s="5"/>
-    </row>
-    <row r="154" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H153" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="I153" s="5" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="154" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B154" s="6" t="s">
         <v>38</v>
       </c>
@@ -4015,8 +6318,14 @@
       </c>
       <c r="F154" s="5"/>
       <c r="G154" s="5"/>
-    </row>
-    <row r="155" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H154" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="I154" s="5" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="155" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B155" s="6" t="s">
         <v>38</v>
       </c>
@@ -4031,8 +6340,14 @@
       </c>
       <c r="F155" s="5"/>
       <c r="G155" s="5"/>
-    </row>
-    <row r="156" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H155" s="5" t="s">
+        <v>629</v>
+      </c>
+      <c r="I155" s="5" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="156" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B156" s="6" t="s">
         <v>38</v>
       </c>
@@ -4051,8 +6366,14 @@
       <c r="G156" s="5" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="157" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H156" s="5" t="s">
+        <v>631</v>
+      </c>
+      <c r="I156" s="5" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="157" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B157" s="6" t="s">
         <v>38</v>
       </c>
@@ -4067,8 +6388,14 @@
       </c>
       <c r="F157" s="5"/>
       <c r="G157" s="5"/>
-    </row>
-    <row r="158" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H157" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="I157" s="5" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="158" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B158" s="6" t="s">
         <v>38</v>
       </c>
@@ -4083,8 +6410,14 @@
       </c>
       <c r="F158" s="5"/>
       <c r="G158" s="5"/>
-    </row>
-    <row r="159" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H158" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="I158" s="5" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="159" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B159" s="6" t="s">
         <v>38</v>
       </c>
@@ -4099,8 +6432,14 @@
       </c>
       <c r="F159" s="5"/>
       <c r="G159" s="5"/>
-    </row>
-    <row r="160" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H159" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="I159" s="5" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="160" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B160" s="6" t="s">
         <v>38</v>
       </c>
@@ -4115,8 +6454,14 @@
       </c>
       <c r="F160" s="5"/>
       <c r="G160" s="5"/>
-    </row>
-    <row r="161" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H160" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="I160" s="5" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="161" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B161" s="6" t="s">
         <v>38</v>
       </c>
@@ -4131,8 +6476,14 @@
       </c>
       <c r="F161" s="5"/>
       <c r="G161" s="5"/>
-    </row>
-    <row r="162" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H161" s="5" t="s">
+        <v>641</v>
+      </c>
+      <c r="I161" s="5" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="162" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B162" s="6" t="s">
         <v>38</v>
       </c>
@@ -4147,8 +6498,14 @@
       </c>
       <c r="F162" s="5"/>
       <c r="G162" s="5"/>
-    </row>
-    <row r="163" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H162" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="I162" s="5" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="163" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B163" s="6" t="s">
         <v>38</v>
       </c>
@@ -4163,8 +6520,14 @@
       </c>
       <c r="F163" s="5"/>
       <c r="G163" s="5"/>
-    </row>
-    <row r="164" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H163" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="I163" s="5" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="164" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B164" s="6" t="s">
         <v>38</v>
       </c>
@@ -4179,8 +6542,14 @@
       </c>
       <c r="F164" s="5"/>
       <c r="G164" s="5"/>
-    </row>
-    <row r="165" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H164" s="5" t="s">
+        <v>647</v>
+      </c>
+      <c r="I164" s="5" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="165" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B165" s="6" t="s">
         <v>38</v>
       </c>
@@ -4195,8 +6564,14 @@
       </c>
       <c r="F165" s="5"/>
       <c r="G165" s="5"/>
-    </row>
-    <row r="166" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H165" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="I165" s="5" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="166" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B166" s="6" t="s">
         <v>38</v>
       </c>
@@ -4211,8 +6586,14 @@
       </c>
       <c r="F166" s="5"/>
       <c r="G166" s="5"/>
-    </row>
-    <row r="167" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H166" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="I166" s="5" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="167" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B167" s="6" t="s">
         <v>38</v>
       </c>
@@ -4227,8 +6608,14 @@
       </c>
       <c r="F167" s="5"/>
       <c r="G167" s="5"/>
-    </row>
-    <row r="168" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H167" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="I167" s="5" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="168" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B168" s="6" t="s">
         <v>38</v>
       </c>
@@ -4243,8 +6630,14 @@
       </c>
       <c r="F168" s="5"/>
       <c r="G168" s="5"/>
-    </row>
-    <row r="169" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H168" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="I168" s="5" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="169" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B169" s="6" t="s">
         <v>38</v>
       </c>
@@ -4259,8 +6652,14 @@
       </c>
       <c r="F169" s="5"/>
       <c r="G169" s="5"/>
-    </row>
-    <row r="170" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H169" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="I169" s="5" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="170" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B170" s="6" t="s">
         <v>38</v>
       </c>
@@ -4275,8 +6674,14 @@
       </c>
       <c r="F170" s="5"/>
       <c r="G170" s="5"/>
-    </row>
-    <row r="171" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H170" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="I170" s="5" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="171" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B171" s="6" t="s">
         <v>38</v>
       </c>
@@ -4291,8 +6696,14 @@
       </c>
       <c r="F171" s="5"/>
       <c r="G171" s="5"/>
-    </row>
-    <row r="172" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H171" s="5" t="s">
+        <v>661</v>
+      </c>
+      <c r="I171" s="5" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="172" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B172" s="6" t="s">
         <v>39</v>
       </c>
@@ -4307,8 +6718,14 @@
       </c>
       <c r="F172" s="5"/>
       <c r="G172" s="5"/>
-    </row>
-    <row r="173" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H172" s="5" t="s">
+        <v>663</v>
+      </c>
+      <c r="I172" s="5" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="173" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B173" s="6" t="s">
         <v>39</v>
       </c>
@@ -4323,8 +6740,14 @@
       </c>
       <c r="F173" s="5"/>
       <c r="G173" s="5"/>
-    </row>
-    <row r="174" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H173" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="I173" s="5" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="174" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B174" s="6" t="s">
         <v>39</v>
       </c>
@@ -4339,8 +6762,14 @@
       </c>
       <c r="F174" s="5"/>
       <c r="G174" s="5"/>
-    </row>
-    <row r="175" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H174" s="5" t="s">
+        <v>667</v>
+      </c>
+      <c r="I174" s="5" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="175" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B175" s="6" t="s">
         <v>39</v>
       </c>
@@ -4355,8 +6784,14 @@
       </c>
       <c r="F175" s="5"/>
       <c r="G175" s="5"/>
-    </row>
-    <row r="176" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H175" s="5" t="s">
+        <v>669</v>
+      </c>
+      <c r="I175" s="5" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="176" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B176" s="6" t="s">
         <v>39</v>
       </c>
@@ -4371,8 +6806,14 @@
       </c>
       <c r="F176" s="5"/>
       <c r="G176" s="5"/>
-    </row>
-    <row r="177" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H176" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="I176" s="5" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="177" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B177" s="6" t="s">
         <v>39</v>
       </c>
@@ -4387,8 +6828,14 @@
       </c>
       <c r="F177" s="5"/>
       <c r="G177" s="5"/>
-    </row>
-    <row r="178" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H177" s="5" t="s">
+        <v>673</v>
+      </c>
+      <c r="I177" s="5" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="178" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B178" s="6" t="s">
         <v>39</v>
       </c>
@@ -4403,8 +6850,14 @@
       </c>
       <c r="F178" s="5"/>
       <c r="G178" s="5"/>
-    </row>
-    <row r="179" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H178" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="I178" s="5" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="179" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B179" s="6" t="s">
         <v>39</v>
       </c>
@@ -4419,8 +6872,14 @@
       </c>
       <c r="F179" s="5"/>
       <c r="G179" s="5"/>
-    </row>
-    <row r="180" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H179" s="5" t="s">
+        <v>677</v>
+      </c>
+      <c r="I179" s="5" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="180" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B180" s="6" t="s">
         <v>39</v>
       </c>
@@ -4435,8 +6894,14 @@
       </c>
       <c r="F180" s="5"/>
       <c r="G180" s="5"/>
-    </row>
-    <row r="181" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H180" s="5" t="s">
+        <v>679</v>
+      </c>
+      <c r="I180" s="5" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="181" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B181" s="6" t="s">
         <v>39</v>
       </c>
@@ -4451,8 +6916,14 @@
       </c>
       <c r="F181" s="5"/>
       <c r="G181" s="5"/>
-    </row>
-    <row r="182" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H181" s="5" t="s">
+        <v>681</v>
+      </c>
+      <c r="I181" s="5" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="182" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B182" s="6" t="s">
         <v>39</v>
       </c>
@@ -4467,8 +6938,14 @@
       </c>
       <c r="F182" s="5"/>
       <c r="G182" s="5"/>
-    </row>
-    <row r="183" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H182" s="5" t="s">
+        <v>683</v>
+      </c>
+      <c r="I182" s="5" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="183" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B183" s="6" t="s">
         <v>39</v>
       </c>
@@ -4483,8 +6960,14 @@
       </c>
       <c r="F183" s="5"/>
       <c r="G183" s="5"/>
-    </row>
-    <row r="184" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H183" s="5" t="s">
+        <v>685</v>
+      </c>
+      <c r="I183" s="5" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="184" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B184" s="6" t="s">
         <v>39</v>
       </c>
@@ -4499,8 +6982,14 @@
       </c>
       <c r="F184" s="5"/>
       <c r="G184" s="5"/>
-    </row>
-    <row r="185" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H184" s="5" t="s">
+        <v>687</v>
+      </c>
+      <c r="I184" s="5" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="185" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B185" s="6" t="s">
         <v>39</v>
       </c>
@@ -4515,8 +7004,14 @@
       </c>
       <c r="F185" s="5"/>
       <c r="G185" s="5"/>
-    </row>
-    <row r="186" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H185" s="5" t="s">
+        <v>689</v>
+      </c>
+      <c r="I185" s="5" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="186" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B186" s="6" t="s">
         <v>39</v>
       </c>
@@ -4531,8 +7026,14 @@
       </c>
       <c r="F186" s="5"/>
       <c r="G186" s="5"/>
-    </row>
-    <row r="187" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H186" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="I186" s="5" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="187" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B187" s="6" t="s">
         <v>37</v>
       </c>
@@ -4547,8 +7048,14 @@
       </c>
       <c r="F187" s="5"/>
       <c r="G187" s="5"/>
-    </row>
-    <row r="188" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H187" s="5" t="s">
+        <v>693</v>
+      </c>
+      <c r="I187" s="5" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="188" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B188" s="6" t="s">
         <v>37</v>
       </c>
@@ -4563,8 +7070,14 @@
       </c>
       <c r="F188" s="5"/>
       <c r="G188" s="5"/>
-    </row>
-    <row r="189" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H188" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="I188" s="5" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="189" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B189" s="6" t="s">
         <v>37</v>
       </c>
@@ -4579,8 +7092,14 @@
       </c>
       <c r="F189" s="5"/>
       <c r="G189" s="5"/>
-    </row>
-    <row r="190" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H189" s="5" t="s">
+        <v>697</v>
+      </c>
+      <c r="I189" s="5" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="190" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B190" s="6" t="s">
         <v>37</v>
       </c>
@@ -4595,8 +7114,14 @@
       </c>
       <c r="F190" s="5"/>
       <c r="G190" s="5"/>
-    </row>
-    <row r="191" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H190" s="5" t="s">
+        <v>699</v>
+      </c>
+      <c r="I190" s="5" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="191" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B191" s="6" t="s">
         <v>37</v>
       </c>
@@ -4611,8 +7136,14 @@
       </c>
       <c r="F191" s="5"/>
       <c r="G191" s="5"/>
-    </row>
-    <row r="192" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H191" s="5" t="s">
+        <v>701</v>
+      </c>
+      <c r="I191" s="5" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="192" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B192" s="6" t="s">
         <v>37</v>
       </c>
@@ -4627,8 +7158,14 @@
       </c>
       <c r="F192" s="5"/>
       <c r="G192" s="5"/>
-    </row>
-    <row r="193" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H192" s="5" t="s">
+        <v>703</v>
+      </c>
+      <c r="I192" s="5" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="193" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B193" s="6" t="s">
         <v>37</v>
       </c>
@@ -4643,8 +7180,14 @@
       </c>
       <c r="F193" s="5"/>
       <c r="G193" s="5"/>
-    </row>
-    <row r="194" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H193" s="5" t="s">
+        <v>705</v>
+      </c>
+      <c r="I193" s="5" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="194" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B194" s="6" t="s">
         <v>37</v>
       </c>
@@ -4659,8 +7202,14 @@
       </c>
       <c r="F194" s="5"/>
       <c r="G194" s="5"/>
-    </row>
-    <row r="195" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H194" s="5" t="s">
+        <v>707</v>
+      </c>
+      <c r="I194" s="5" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="195" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B195" s="6" t="s">
         <v>37</v>
       </c>
@@ -4675,8 +7224,14 @@
       </c>
       <c r="F195" s="5"/>
       <c r="G195" s="5"/>
-    </row>
-    <row r="196" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H195" s="5" t="s">
+        <v>709</v>
+      </c>
+      <c r="I195" s="5" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="196" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B196" s="6" t="s">
         <v>37</v>
       </c>
@@ -4691,8 +7246,14 @@
       </c>
       <c r="F196" s="5"/>
       <c r="G196" s="5"/>
-    </row>
-    <row r="197" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H196" s="5" t="s">
+        <v>711</v>
+      </c>
+      <c r="I196" s="5" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="197" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B197" s="6" t="s">
         <v>37</v>
       </c>
@@ -4707,8 +7268,14 @@
       </c>
       <c r="F197" s="5"/>
       <c r="G197" s="5"/>
-    </row>
-    <row r="198" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H197" s="5" t="s">
+        <v>713</v>
+      </c>
+      <c r="I197" s="5" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="198" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B198" s="6" t="s">
         <v>37</v>
       </c>
@@ -4723,8 +7290,14 @@
       </c>
       <c r="F198" s="5"/>
       <c r="G198" s="5"/>
-    </row>
-    <row r="199" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H198" s="5" t="s">
+        <v>715</v>
+      </c>
+      <c r="I198" s="5" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="199" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B199" s="6" t="s">
         <v>37</v>
       </c>
@@ -4739,8 +7312,14 @@
       </c>
       <c r="F199" s="5"/>
       <c r="G199" s="5"/>
-    </row>
-    <row r="200" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H199" s="5" t="s">
+        <v>717</v>
+      </c>
+      <c r="I199" s="5" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="200" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B200" s="6" t="s">
         <v>37</v>
       </c>
@@ -4755,8 +7334,14 @@
       </c>
       <c r="F200" s="5"/>
       <c r="G200" s="5"/>
-    </row>
-    <row r="201" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H200" s="5" t="s">
+        <v>719</v>
+      </c>
+      <c r="I200" s="5" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="201" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B201" s="6" t="s">
         <v>37</v>
       </c>
@@ -4771,8 +7356,14 @@
       </c>
       <c r="F201" s="5"/>
       <c r="G201" s="5"/>
-    </row>
-    <row r="202" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H201" s="5" t="s">
+        <v>721</v>
+      </c>
+      <c r="I201" s="5" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="202" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B202" s="6" t="s">
         <v>37</v>
       </c>
@@ -4787,8 +7378,14 @@
       </c>
       <c r="F202" s="5"/>
       <c r="G202" s="5"/>
-    </row>
-    <row r="203" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H202" s="5" t="s">
+        <v>723</v>
+      </c>
+      <c r="I202" s="5" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="203" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B203" s="6" t="s">
         <v>37</v>
       </c>
@@ -4803,8 +7400,14 @@
       </c>
       <c r="F203" s="5"/>
       <c r="G203" s="5"/>
-    </row>
-    <row r="204" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H203" s="5" t="s">
+        <v>725</v>
+      </c>
+      <c r="I203" s="5" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="204" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B204" s="6" t="s">
         <v>37</v>
       </c>
@@ -4819,8 +7422,14 @@
       </c>
       <c r="F204" s="5"/>
       <c r="G204" s="5"/>
-    </row>
-    <row r="205" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H204" s="5" t="s">
+        <v>727</v>
+      </c>
+      <c r="I204" s="5" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="205" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B205" s="6" t="s">
         <v>37</v>
       </c>
@@ -4835,8 +7444,14 @@
       </c>
       <c r="F205" s="5"/>
       <c r="G205" s="5"/>
-    </row>
-    <row r="206" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H205" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="I205" s="5" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="206" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B206" s="6" t="s">
         <v>37</v>
       </c>
@@ -4851,8 +7466,14 @@
       </c>
       <c r="F206" s="5"/>
       <c r="G206" s="5"/>
-    </row>
-    <row r="207" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H206" s="5" t="s">
+        <v>731</v>
+      </c>
+      <c r="I206" s="5" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="207" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B207" s="6" t="s">
         <v>37</v>
       </c>
@@ -4867,8 +7488,14 @@
       </c>
       <c r="F207" s="5"/>
       <c r="G207" s="5"/>
-    </row>
-    <row r="208" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H207" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="I207" s="5" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="208" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B208" s="6" t="s">
         <v>37</v>
       </c>
@@ -4883,8 +7510,14 @@
       </c>
       <c r="F208" s="5"/>
       <c r="G208" s="5"/>
-    </row>
-    <row r="209" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H208" s="5" t="s">
+        <v>735</v>
+      </c>
+      <c r="I208" s="5" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="209" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B209" s="6" t="s">
         <v>37</v>
       </c>
@@ -4899,8 +7532,14 @@
       </c>
       <c r="F209" s="5"/>
       <c r="G209" s="5"/>
-    </row>
-    <row r="210" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H209" s="5" t="s">
+        <v>737</v>
+      </c>
+      <c r="I209" s="5" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="210" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B210" s="6" t="s">
         <v>37</v>
       </c>
@@ -4915,8 +7554,14 @@
       </c>
       <c r="F210" s="5"/>
       <c r="G210" s="5"/>
-    </row>
-    <row r="211" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H210" s="5" t="s">
+        <v>739</v>
+      </c>
+      <c r="I210" s="5" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="211" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B211" s="6" t="s">
         <v>37</v>
       </c>
@@ -4931,8 +7576,14 @@
       </c>
       <c r="F211" s="5"/>
       <c r="G211" s="5"/>
-    </row>
-    <row r="212" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H211" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="I211" s="5" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="212" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B212" s="6" t="s">
         <v>37</v>
       </c>
@@ -4947,8 +7598,14 @@
       </c>
       <c r="F212" s="5"/>
       <c r="G212" s="5"/>
-    </row>
-    <row r="213" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H212" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="I212" s="5" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="213" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B213" s="6" t="s">
         <v>37</v>
       </c>
@@ -4963,8 +7620,14 @@
       </c>
       <c r="F213" s="5"/>
       <c r="G213" s="5"/>
-    </row>
-    <row r="214" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H213" s="5" t="s">
+        <v>745</v>
+      </c>
+      <c r="I213" s="5" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="214" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B214" s="6" t="s">
         <v>37</v>
       </c>
@@ -4979,8 +7642,14 @@
       </c>
       <c r="F214" s="5"/>
       <c r="G214" s="5"/>
-    </row>
-    <row r="215" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H214" s="5" t="s">
+        <v>747</v>
+      </c>
+      <c r="I214" s="5" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="215" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B215" s="6" t="s">
         <v>37</v>
       </c>
@@ -4995,8 +7664,14 @@
       </c>
       <c r="F215" s="5"/>
       <c r="G215" s="5"/>
-    </row>
-    <row r="216" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H215" s="5" t="s">
+        <v>749</v>
+      </c>
+      <c r="I215" s="5" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="216" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B216" s="6" t="s">
         <v>37</v>
       </c>
@@ -5011,8 +7686,14 @@
       </c>
       <c r="F216" s="5"/>
       <c r="G216" s="5"/>
-    </row>
-    <row r="217" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H216" s="5" t="s">
+        <v>751</v>
+      </c>
+      <c r="I216" s="5" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="217" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B217" s="6" t="s">
         <v>37</v>
       </c>
@@ -5027,8 +7708,14 @@
       </c>
       <c r="F217" s="5"/>
       <c r="G217" s="5"/>
-    </row>
-    <row r="218" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H217" s="5" t="s">
+        <v>753</v>
+      </c>
+      <c r="I217" s="5" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="218" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B218" s="6" t="s">
         <v>37</v>
       </c>
@@ -5043,8 +7730,14 @@
       </c>
       <c r="F218" s="5"/>
       <c r="G218" s="5"/>
-    </row>
-    <row r="219" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H218" s="5" t="s">
+        <v>755</v>
+      </c>
+      <c r="I218" s="5" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="219" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B219" s="6" t="s">
         <v>37</v>
       </c>
@@ -5059,8 +7752,14 @@
       </c>
       <c r="F219" s="5"/>
       <c r="G219" s="5"/>
-    </row>
-    <row r="220" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H219" s="5" t="s">
+        <v>757</v>
+      </c>
+      <c r="I219" s="5" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="220" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B220" s="6" t="s">
         <v>37</v>
       </c>
@@ -5075,8 +7774,14 @@
       </c>
       <c r="F220" s="5"/>
       <c r="G220" s="5"/>
-    </row>
-    <row r="221" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H220" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="I220" s="5" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="221" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B221" s="6" t="s">
         <v>37</v>
       </c>
@@ -5091,8 +7796,14 @@
       </c>
       <c r="F221" s="5"/>
       <c r="G221" s="5"/>
-    </row>
-    <row r="222" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H221" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="I221" s="5" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="222" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B222" s="6" t="s">
         <v>37</v>
       </c>
@@ -5107,8 +7818,14 @@
       </c>
       <c r="F222" s="5"/>
       <c r="G222" s="5"/>
-    </row>
-    <row r="223" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H222" s="5" t="s">
+        <v>763</v>
+      </c>
+      <c r="I222" s="5" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="223" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B223" s="6" t="s">
         <v>37</v>
       </c>
@@ -5123,8 +7840,14 @@
       </c>
       <c r="F223" s="5"/>
       <c r="G223" s="5"/>
-    </row>
-    <row r="224" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H223" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="I223" s="5" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="224" spans="2:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B224" s="6" t="s">
         <v>40</v>
       </c>
@@ -5139,8 +7862,14 @@
       </c>
       <c r="F224" s="5"/>
       <c r="G224" s="5"/>
-    </row>
-    <row r="225" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H224" s="5" t="s">
+        <v>766</v>
+      </c>
+      <c r="I224" s="5" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="225" spans="2:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B225" s="6" t="s">
         <v>40</v>
       </c>
@@ -5155,8 +7884,14 @@
       </c>
       <c r="F225" s="5"/>
       <c r="G225" s="5"/>
-    </row>
-    <row r="226" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H225" s="5" t="s">
+        <v>768</v>
+      </c>
+      <c r="I225" s="5" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="226" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B226" s="6" t="s">
         <v>40</v>
       </c>
@@ -5171,8 +7906,14 @@
       </c>
       <c r="F226" s="5"/>
       <c r="G226" s="5"/>
-    </row>
-    <row r="227" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H226" s="5" t="s">
+        <v>770</v>
+      </c>
+      <c r="I226" s="5" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="227" spans="2:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B227" s="6" t="s">
         <v>40</v>
       </c>
@@ -5187,8 +7928,14 @@
       </c>
       <c r="F227" s="5"/>
       <c r="G227" s="5"/>
-    </row>
-    <row r="228" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H227" s="5" t="s">
+        <v>772</v>
+      </c>
+      <c r="I227" s="5" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="228" spans="2:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B228" s="6" t="s">
         <v>40</v>
       </c>
@@ -5203,8 +7950,14 @@
       </c>
       <c r="F228" s="5"/>
       <c r="G228" s="5"/>
-    </row>
-    <row r="229" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H228" s="5" t="s">
+        <v>774</v>
+      </c>
+      <c r="I228" s="5" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="229" spans="2:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B229" s="6" t="s">
         <v>40</v>
       </c>
@@ -5219,8 +7972,14 @@
       </c>
       <c r="F229" s="5"/>
       <c r="G229" s="5"/>
-    </row>
-    <row r="230" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H229" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="I229" s="5" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="230" spans="2:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B230" s="6" t="s">
         <v>40</v>
       </c>
@@ -5235,8 +7994,14 @@
       </c>
       <c r="F230" s="5"/>
       <c r="G230" s="5"/>
-    </row>
-    <row r="231" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H230" s="5" t="s">
+        <v>778</v>
+      </c>
+      <c r="I230" s="5" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="231" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B231" s="6" t="s">
         <v>40</v>
       </c>
@@ -5251,8 +8016,14 @@
       </c>
       <c r="F231" s="5"/>
       <c r="G231" s="5"/>
-    </row>
-    <row r="232" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H231" s="5" t="s">
+        <v>780</v>
+      </c>
+      <c r="I231" s="5" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="232" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B232" s="6" t="s">
         <v>40</v>
       </c>
@@ -5267,8 +8038,14 @@
       </c>
       <c r="F232" s="5"/>
       <c r="G232" s="5"/>
-    </row>
-    <row r="233" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H232" s="5" t="s">
+        <v>782</v>
+      </c>
+      <c r="I232" s="5" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="233" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B233" s="6" t="s">
         <v>40</v>
       </c>
@@ -5283,8 +8060,14 @@
       </c>
       <c r="F233" s="5"/>
       <c r="G233" s="5"/>
-    </row>
-    <row r="234" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H233" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="I233" s="5" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="234" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B234" s="6" t="s">
         <v>40</v>
       </c>
@@ -5297,8 +8080,14 @@
       </c>
       <c r="F234" s="5"/>
       <c r="G234" s="5"/>
-    </row>
-    <row r="235" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H234" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="I234" s="5" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="235" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B235" s="6" t="s">
         <v>40</v>
       </c>
@@ -5311,8 +8100,14 @@
       </c>
       <c r="F235" s="5"/>
       <c r="G235" s="5"/>
-    </row>
-    <row r="236" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H235" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="I235" s="5" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="236" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B236" s="6" t="s">
         <v>40</v>
       </c>
@@ -5325,8 +8120,14 @@
       </c>
       <c r="F236" s="5"/>
       <c r="G236" s="5"/>
-    </row>
-    <row r="237" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H236" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="I236" s="5" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="237" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B237" s="6" t="s">
         <v>40</v>
       </c>
@@ -5339,8 +8140,14 @@
       </c>
       <c r="F237" s="5"/>
       <c r="G237" s="5"/>
-    </row>
-    <row r="238" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H237" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="I237" s="5" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="238" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B238" s="6" t="s">
         <v>41</v>
       </c>
@@ -5353,8 +8160,14 @@
       </c>
       <c r="F238" s="5"/>
       <c r="G238" s="5"/>
-    </row>
-    <row r="239" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H238" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="I238" s="5" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="239" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B239" s="6" t="s">
         <v>41</v>
       </c>
@@ -5367,8 +8180,14 @@
       </c>
       <c r="F239" s="5"/>
       <c r="G239" s="5"/>
-    </row>
-    <row r="240" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H239" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="I239" s="5" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="240" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B240" s="6" t="s">
         <v>41</v>
       </c>
@@ -5381,470 +8200,492 @@
       </c>
       <c r="F240" s="5"/>
       <c r="G240" s="5"/>
+      <c r="H240" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="I240" s="5" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="241" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H241" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="I241" s="5" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="242" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H242" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="I242" s="5" t="s">
+        <v>446</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="B2:G240"/>
+  <autoFilter ref="B2:G240" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <hyperlinks>
-    <hyperlink ref="E123" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="D4" r:id="rId3" display="http://www.ncbi.nlm.nih.gov/pubmed/19269895"/>
-    <hyperlink ref="D5" r:id="rId4" display="http://www.ncbi.nlm.nih.gov/pubmed/17429084"/>
-    <hyperlink ref="D6" r:id="rId5" display="http://www.ncbi.nlm.nih.gov/pubmed/15051755"/>
-    <hyperlink ref="D7" r:id="rId6" display="http://www.ncbi.nlm.nih.gov/pubmed/22877848"/>
-    <hyperlink ref="D8" r:id="rId7" display="https://www.ncbi.nlm.nih.gov/pubmed/28296618"/>
-    <hyperlink ref="D9" r:id="rId8" display="http://www.ncbi.nlm.nih.gov/pubmed/15465203"/>
-    <hyperlink ref="D21" r:id="rId9" display="http://www.ncbi.nlm.nih.gov/pubmed/16168780"/>
-    <hyperlink ref="D22" r:id="rId10" display="http://www.ncbi.nlm.nih.gov/pubmed/11956268"/>
-    <hyperlink ref="D23" r:id="rId11" display="http://www.ncbi.nlm.nih.gov/pubmed/27050206"/>
-    <hyperlink ref="D24" r:id="rId12" display="http://www.ncbi.nlm.nih.gov/pubmed/25680596"/>
-    <hyperlink ref="D25" r:id="rId13" display="https://www.ncbi.nlm.nih.gov/pubmed/27686946"/>
-    <hyperlink ref="D20" r:id="rId14" display="http://www.ncbi.nlm.nih.gov/pubmed/8948338"/>
-    <hyperlink ref="D12" r:id="rId15"/>
-    <hyperlink ref="D13" r:id="rId16" display="http://www.ncbi.nlm.nih.gov/pubmed/19901110"/>
-    <hyperlink ref="D14" r:id="rId17"/>
-    <hyperlink ref="D15" r:id="rId18" display="http://www.ncbi.nlm.nih.gov/pubmed/21636710"/>
-    <hyperlink ref="D16" r:id="rId19" display="http://www.ncbi.nlm.nih.gov/pubmed/23071247"/>
-    <hyperlink ref="D17" r:id="rId20" display="http://www.ncbi.nlm.nih.gov/pubmed/23071237"/>
-    <hyperlink ref="D18" r:id="rId21" display="https://www.ncbi.nlm.nih.gov/pubmed/28801186"/>
-    <hyperlink ref="D19" r:id="rId22" display="http://www.neurology.org/content/86/16_Supplement/PL02.005"/>
-    <hyperlink ref="D26" r:id="rId23" display="http://www.ncbi.nlm.nih.gov/pubmed/20530316"/>
-    <hyperlink ref="D27" r:id="rId24" display="http://www.ncbi.nlm.nih.gov/pubmed/24613816"/>
-    <hyperlink ref="D28" r:id="rId25" display="http://www.ncbi.nlm.nih.gov/pubmed/12506176"/>
-    <hyperlink ref="D29" r:id="rId26" display="http://www.ncbi.nlm.nih.gov/pubmed/19897418"/>
-    <hyperlink ref="D30" r:id="rId27" display="https://www.ncbi.nlm.nih.gov/pubmed/25154822"/>
-    <hyperlink ref="D31" r:id="rId28" display="https://www.ncbi.nlm.nih.gov/pubmed/22261362"/>
-    <hyperlink ref="D32" r:id="rId29" display="http://www.ncbi.nlm.nih.gov/pubmed/11567806"/>
-    <hyperlink ref="D35" r:id="rId30" display="http://www.ncbi.nlm.nih.gov/pubmed/9552031"/>
-    <hyperlink ref="D36" r:id="rId31" display="http://www.ncbi.nlm.nih.gov/pubmed/16170180"/>
-    <hyperlink ref="D37" r:id="rId32" display="http://www.ncbi.nlm.nih.gov/pubmed/22154591"/>
-    <hyperlink ref="D38" r:id="rId33" display="http://www.ncbi.nlm.nih.gov/pubmed/19564532"/>
-    <hyperlink ref="D44" r:id="rId34" display="http://www.ncbi.nlm.nih.gov/pubmed/23182993"/>
-    <hyperlink ref="D45" r:id="rId35" display="http://jco.ascopubs.org/content/32/25/2735.abstract?ijkey=86ab2cc6a91330d2106baa005e1ccf48e17bc035&amp;keytype2=tf_ipsecsha"/>
-    <hyperlink ref="D47" r:id="rId36" display="http://www.ncbi.nlm.nih.gov/pubmed/22492697"/>
-    <hyperlink ref="D48" r:id="rId37" display="http://www.ncbi.nlm.nih.gov/pubmed/8482629"/>
-    <hyperlink ref="D49" r:id="rId38" display="http://www.ncbi.nlm.nih.gov/pubmed/11597795"/>
-    <hyperlink ref="D50" r:id="rId39" display="http://www.ncbi.nlm.nih.gov/pubmed/15128893"/>
-    <hyperlink ref="D51" r:id="rId40" display="http://www.ncbi.nlm.nih.gov/pubmed/15128894"/>
-    <hyperlink ref="D52" r:id="rId41" display="http://www.ncbi.nlm.nih.gov/pubmed/16161069"/>
-    <hyperlink ref="D59" r:id="rId42" display="http://www.ncbi.nlm.nih.gov/pubmed/10561173"/>
-    <hyperlink ref="D60" r:id="rId43" display="http://www.ncbi.nlm.nih.gov/pubmed/15718317"/>
-    <hyperlink ref="D61" r:id="rId44" display="http://www.ncbi.nlm.nih.gov/pubmed/21282539"/>
-    <hyperlink ref="D62" r:id="rId45" display="https://www.ncbi.nlm.nih.gov/pubmed/12431967"/>
-    <hyperlink ref="D64" r:id="rId46" display="https://www.ncbi.nlm.nih.gov/pubmed/26700704"/>
-    <hyperlink ref="D65" r:id="rId47" display="https://www.ncbi.nlm.nih.gov/pubmed/27146264"/>
-    <hyperlink ref="D54" r:id="rId48" display="https://www.ncbi.nlm.nih.gov/pubmed/15629600?dopt=Abstract"/>
-    <hyperlink ref="D55" r:id="rId49" display="https://www.ncbi.nlm.nih.gov/pubmed/22539053"/>
-    <hyperlink ref="D56" r:id="rId50" display="https://www.ncbi.nlm.nih.gov/pubmed/19386433"/>
-    <hyperlink ref="D66" r:id="rId51" display="http://www.ncbi.nlm.nih.gov/pubmed/16710030"/>
-    <hyperlink ref="D67" r:id="rId52" display="http://www.ncbi.nlm.nih.gov/pubmed/11157016"/>
-    <hyperlink ref="D68" r:id="rId53" display="http://www.ncbi.nlm.nih.gov/pubmed/25498218"/>
-    <hyperlink ref="D69" r:id="rId54" display="https://www.ncbi.nlm.nih.gov/pubmed/21502557"/>
-    <hyperlink ref="D70" r:id="rId55" display="https://www.ncbi.nlm.nih.gov/pubmed/22512481"/>
-    <hyperlink ref="D71" r:id="rId56" display="http://www.ncbi.nlm.nih.gov/pubmed/23823157"/>
-    <hyperlink ref="E66" r:id="rId57"/>
-    <hyperlink ref="E67" r:id="rId58"/>
-    <hyperlink ref="E68" r:id="rId59"/>
-    <hyperlink ref="E69" r:id="rId60"/>
-    <hyperlink ref="E70" r:id="rId61"/>
-    <hyperlink ref="E71" r:id="rId62"/>
-    <hyperlink ref="E59" r:id="rId63"/>
-    <hyperlink ref="E60" r:id="rId64"/>
-    <hyperlink ref="E61" r:id="rId65"/>
-    <hyperlink ref="E62" r:id="rId66"/>
-    <hyperlink ref="E63" r:id="rId67"/>
-    <hyperlink ref="E64" r:id="rId68"/>
-    <hyperlink ref="E65" r:id="rId69"/>
-    <hyperlink ref="D11" r:id="rId70"/>
-    <hyperlink ref="D10" r:id="rId71"/>
-    <hyperlink ref="E3" r:id="rId72"/>
-    <hyperlink ref="E4" r:id="rId73"/>
-    <hyperlink ref="E5" r:id="rId74"/>
-    <hyperlink ref="E6" r:id="rId75"/>
-    <hyperlink ref="E7" r:id="rId76"/>
-    <hyperlink ref="E8" r:id="rId77"/>
-    <hyperlink ref="E9" r:id="rId78"/>
-    <hyperlink ref="E10" r:id="rId79"/>
-    <hyperlink ref="E11" r:id="rId80"/>
-    <hyperlink ref="E12" r:id="rId81"/>
-    <hyperlink ref="E13" r:id="rId82"/>
-    <hyperlink ref="E14" r:id="rId83"/>
-    <hyperlink ref="E15" r:id="rId84"/>
-    <hyperlink ref="E16" r:id="rId85"/>
-    <hyperlink ref="E17" r:id="rId86"/>
-    <hyperlink ref="E18" r:id="rId87"/>
-    <hyperlink ref="E19" r:id="rId88"/>
-    <hyperlink ref="E20" r:id="rId89"/>
-    <hyperlink ref="E21" r:id="rId90"/>
-    <hyperlink ref="E22" r:id="rId91"/>
-    <hyperlink ref="E23" r:id="rId92"/>
-    <hyperlink ref="E24" r:id="rId93"/>
-    <hyperlink ref="E25" r:id="rId94"/>
-    <hyperlink ref="D33" r:id="rId95"/>
-    <hyperlink ref="D34" r:id="rId96"/>
-    <hyperlink ref="E26" r:id="rId97"/>
-    <hyperlink ref="E27" r:id="rId98"/>
-    <hyperlink ref="E28" r:id="rId99"/>
-    <hyperlink ref="E29" r:id="rId100"/>
-    <hyperlink ref="E30" r:id="rId101"/>
-    <hyperlink ref="E31" r:id="rId102"/>
-    <hyperlink ref="E32" r:id="rId103"/>
-    <hyperlink ref="E33" r:id="rId104"/>
-    <hyperlink ref="E34" r:id="rId105"/>
-    <hyperlink ref="D39" r:id="rId106"/>
-    <hyperlink ref="E35" r:id="rId107"/>
-    <hyperlink ref="E36" r:id="rId108"/>
-    <hyperlink ref="E37" r:id="rId109"/>
-    <hyperlink ref="E38" r:id="rId110"/>
-    <hyperlink ref="E39" r:id="rId111"/>
-    <hyperlink ref="D46" r:id="rId112"/>
-    <hyperlink ref="E44" r:id="rId113"/>
-    <hyperlink ref="E46" r:id="rId114"/>
-    <hyperlink ref="E47" r:id="rId115"/>
-    <hyperlink ref="E45" r:id="rId116"/>
-    <hyperlink ref="E42" r:id="rId117"/>
-    <hyperlink ref="D42" r:id="rId118"/>
-    <hyperlink ref="E41" r:id="rId119"/>
-    <hyperlink ref="D41" r:id="rId120"/>
-    <hyperlink ref="D43" r:id="rId121"/>
-    <hyperlink ref="E43" r:id="rId122"/>
-    <hyperlink ref="D40" r:id="rId123"/>
-    <hyperlink ref="E40" r:id="rId124"/>
-    <hyperlink ref="E48" r:id="rId125"/>
-    <hyperlink ref="E49" r:id="rId126"/>
-    <hyperlink ref="E50" r:id="rId127"/>
-    <hyperlink ref="E51" r:id="rId128"/>
-    <hyperlink ref="E52" r:id="rId129"/>
-    <hyperlink ref="D53" r:id="rId130"/>
-    <hyperlink ref="E53" r:id="rId131"/>
-    <hyperlink ref="E54" r:id="rId132"/>
-    <hyperlink ref="E55" r:id="rId133"/>
-    <hyperlink ref="E56" r:id="rId134"/>
-    <hyperlink ref="D57" r:id="rId135"/>
-    <hyperlink ref="E57" r:id="rId136"/>
-    <hyperlink ref="D58" r:id="rId137"/>
-    <hyperlink ref="E58" r:id="rId138"/>
-    <hyperlink ref="D72" r:id="rId139" display="https://www.ncbi.nlm.nih.gov/pubmed/19297565?dopt=Abstract"/>
-    <hyperlink ref="D73" r:id="rId140" display="http://www.nejm.org/doi/full/10.1056/NEJMc1515131"/>
-    <hyperlink ref="D74" r:id="rId141" display="http://www.nejm.org/doi/full/10.1056/NEJMc1607379"/>
-    <hyperlink ref="D75" r:id="rId142" location="t=article" display="t=article"/>
-    <hyperlink ref="D76" r:id="rId143" display="http://www.nejm.org/doi/full/10.1056/NEJMoa1606221"/>
-    <hyperlink ref="D77" r:id="rId144" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4961874/"/>
-    <hyperlink ref="D78" r:id="rId145" display="https://www.ncbi.nlm.nih.gov/pubmed/27044935"/>
-    <hyperlink ref="D79" r:id="rId146" display="https://www.nejm.org/doi/full/10.1056/NEJMoa1807801"/>
-    <hyperlink ref="D80" r:id="rId147" display="http://www.nejm.org/doi/full/10.1056/NEJMoa1615869"/>
-    <hyperlink ref="D81" r:id="rId148" display="https://www.ncbi.nlm.nih.gov/pubmed/28110982"/>
-    <hyperlink ref="E72" r:id="rId149"/>
-    <hyperlink ref="E73" r:id="rId150"/>
-    <hyperlink ref="E74" r:id="rId151"/>
-    <hyperlink ref="E75" r:id="rId152"/>
-    <hyperlink ref="E76" r:id="rId153"/>
-    <hyperlink ref="E77" r:id="rId154"/>
-    <hyperlink ref="E78" r:id="rId155"/>
-    <hyperlink ref="E79" r:id="rId156"/>
-    <hyperlink ref="E80" r:id="rId157"/>
-    <hyperlink ref="E81" r:id="rId158"/>
-    <hyperlink ref="D82" r:id="rId159" display="http://www.ncbi.nlm.nih.gov/pubmed/18565884"/>
-    <hyperlink ref="D83" r:id="rId160" display="http://www.ncbi.nlm.nih.gov/pubmed/21751904"/>
-    <hyperlink ref="D84" r:id="rId161" display="http://meetinglibrary.asco.org/content/141191-159"/>
-    <hyperlink ref="D85" r:id="rId162" display="https://www.ncbi.nlm.nih.gov/pubmed/25534388"/>
-    <hyperlink ref="D86" r:id="rId163" display="https://www.ncbi.nlm.nih.gov/pubmed/17531401?dopt=Abstract"/>
-    <hyperlink ref="D87" r:id="rId164" display="https://www.ncbi.nlm.nih.gov/pubmed/18048817?dopt=Abstract"/>
-    <hyperlink ref="D88" r:id="rId165" display="https://www.ncbi.nlm.nih.gov/pubmed/19516032?dopt=Abstract"/>
-    <hyperlink ref="D89" r:id="rId166" display="https://www.ncbi.nlm.nih.gov/pubmed/29980331"/>
-    <hyperlink ref="D90" r:id="rId167" display="https://www.ncbi.nlm.nih.gov/pubmed/25702876"/>
-    <hyperlink ref="E82" r:id="rId168"/>
-    <hyperlink ref="E83" r:id="rId169"/>
-    <hyperlink ref="E84" r:id="rId170"/>
-    <hyperlink ref="E85" r:id="rId171"/>
-    <hyperlink ref="E86" r:id="rId172"/>
-    <hyperlink ref="E87" r:id="rId173"/>
-    <hyperlink ref="E88" r:id="rId174"/>
-    <hyperlink ref="E89" r:id="rId175"/>
-    <hyperlink ref="E90" r:id="rId176"/>
-    <hyperlink ref="D91" r:id="rId177" display="http://www.ncbi.nlm.nih.gov/pubmed/19167731"/>
-    <hyperlink ref="D92" r:id="rId178" display="https://www.ncbi.nlm.nih.gov/pubmed/28146658"/>
-    <hyperlink ref="D97" r:id="rId179" display="http://www.ncbi.nlm.nih.gov/pubmed/25245445"/>
-    <hyperlink ref="E91" r:id="rId180"/>
-    <hyperlink ref="E92" r:id="rId181"/>
-    <hyperlink ref="E97" r:id="rId182"/>
-    <hyperlink ref="D95" r:id="rId183"/>
-    <hyperlink ref="E95" r:id="rId184"/>
-    <hyperlink ref="D96" r:id="rId185"/>
-    <hyperlink ref="E96" r:id="rId186"/>
-    <hyperlink ref="D93" r:id="rId187"/>
-    <hyperlink ref="E93" r:id="rId188"/>
-    <hyperlink ref="D94" r:id="rId189"/>
-    <hyperlink ref="E94" r:id="rId190"/>
-    <hyperlink ref="D100" r:id="rId191"/>
-    <hyperlink ref="E100" r:id="rId192"/>
-    <hyperlink ref="D98" r:id="rId193" display="RAVES Adjuvant RT (Parker, 2019)"/>
-    <hyperlink ref="E98" r:id="rId194"/>
-    <hyperlink ref="D99" r:id="rId195"/>
-    <hyperlink ref="E99" r:id="rId196"/>
-    <hyperlink ref="D101" r:id="rId197" display="http://www.ncbi.nlm.nih.gov/pubmed/1331787"/>
-    <hyperlink ref="D102" r:id="rId198" display="http://www.ncbi.nlm.nih.gov/pubmed/8381164"/>
-    <hyperlink ref="D103" r:id="rId199" display="http://www.ncbi.nlm.nih.gov/pubmed/9920950"/>
-    <hyperlink ref="D104" r:id="rId200" display="https://www.ncbi.nlm.nih.gov/pubmed/28642008"/>
-    <hyperlink ref="D105" r:id="rId201" display="http://www.ncbi.nlm.nih.gov/pubmed/25230595"/>
-    <hyperlink ref="D106" r:id="rId202" display="http://www.ncbi.nlm.nih.gov/pubmed/10441603"/>
-    <hyperlink ref="D107" r:id="rId203" display="http://www.ncbi.nlm.nih.gov/pubmed/17699816"/>
-    <hyperlink ref="D108" r:id="rId204" display="https://www.ncbi.nlm.nih.gov/pubmed/28343976"/>
-    <hyperlink ref="D109" r:id="rId205"/>
-    <hyperlink ref="D110" r:id="rId206" display="Atezo Plus Cis/Etop ES-SCLC (NEJM 2018)"/>
-    <hyperlink ref="D111" r:id="rId207"/>
-    <hyperlink ref="D112" r:id="rId208"/>
-    <hyperlink ref="E112" r:id="rId209"/>
-    <hyperlink ref="E111" r:id="rId210"/>
-    <hyperlink ref="E110" r:id="rId211"/>
-    <hyperlink ref="E109" r:id="rId212"/>
-    <hyperlink ref="E108" r:id="rId213"/>
-    <hyperlink ref="E107" r:id="rId214"/>
-    <hyperlink ref="E106" r:id="rId215"/>
-    <hyperlink ref="E105" r:id="rId216"/>
-    <hyperlink ref="E104" r:id="rId217"/>
-    <hyperlink ref="E103" r:id="rId218"/>
-    <hyperlink ref="E102" r:id="rId219"/>
-    <hyperlink ref="E101" r:id="rId220"/>
-    <hyperlink ref="D113" r:id="rId221" display="http://www.ncbi.nlm.nih.gov/pubmed/7677489"/>
-    <hyperlink ref="D114" r:id="rId222" display="http://www.ncbi.nlm.nih.gov/pubmed/24982457"/>
-    <hyperlink ref="D115" r:id="rId223"/>
-    <hyperlink ref="D116" r:id="rId224" display="https://www.ncbi.nlm.nih.gov/pubmed/?term=Postoperative+Radiotherapy+for+Pathologic+N2+Non%E2%80%93Small-Cell+Lung+Cancer+Treated+With+Adjuvant+Chemotherapy%3A+A+Review+of+the+National+Cancer+Data+Base"/>
-    <hyperlink ref="D117" r:id="rId225" display="http://www.ncbi.nlm.nih.gov/pubmed/18439766"/>
-    <hyperlink ref="D118" r:id="rId226" display="http://www.ncbi.nlm.nih.gov/pubmed/20233825"/>
-    <hyperlink ref="D119" r:id="rId227" display="https://www.ncbi.nlm.nih.gov/pubmed/25981812"/>
-    <hyperlink ref="D120" r:id="rId228" display="https://www.ncbi.nlm.nih.gov/pubmed/25074417"/>
-    <hyperlink ref="D121" r:id="rId229" display="https://www.ncbi.nlm.nih.gov/pubmed/27600155"/>
-    <hyperlink ref="D122" r:id="rId230"/>
-    <hyperlink ref="E122" r:id="rId231"/>
-    <hyperlink ref="E113" r:id="rId232"/>
-    <hyperlink ref="E114" r:id="rId233"/>
-    <hyperlink ref="E115" r:id="rId234"/>
-    <hyperlink ref="E116" r:id="rId235"/>
-    <hyperlink ref="E117" r:id="rId236"/>
-    <hyperlink ref="E118" r:id="rId237"/>
-    <hyperlink ref="E119" r:id="rId238"/>
-    <hyperlink ref="E120" r:id="rId239"/>
-    <hyperlink ref="E121" r:id="rId240"/>
-    <hyperlink ref="D124" r:id="rId241" display="https://www.ncbi.nlm.nih.gov/pubmed/25601342"/>
-    <hyperlink ref="D125" r:id="rId242" display="http://ascopubs.org/doi/full/10.1200/JCO.2016.69.1378"/>
-    <hyperlink ref="D126" r:id="rId243" display="http://www.ncbi.nlm.nih.gov/pubmed/17551299"/>
-    <hyperlink ref="D127" r:id="rId244" display="http://www.ncbi.nlm.nih.gov/pubmed/19632716"/>
-    <hyperlink ref="D128" r:id="rId245" display="https://www.ncbi.nlm.nih.gov/pubmed/26527789"/>
-    <hyperlink ref="D129" r:id="rId246" display="http://www.ncbi.nlm.nih.gov/pubmed/11241082"/>
-    <hyperlink ref="D123" r:id="rId247" display="http://www.ncbi.nlm.nih.gov/pubmed/21903745"/>
-    <hyperlink ref="D131" r:id="rId248"/>
-    <hyperlink ref="D130" r:id="rId249" display="LAMP (Belani, 2016)"/>
-    <hyperlink ref="E124" r:id="rId250"/>
-    <hyperlink ref="E125" r:id="rId251"/>
-    <hyperlink ref="E126" r:id="rId252"/>
-    <hyperlink ref="E127" r:id="rId253"/>
-    <hyperlink ref="E128" r:id="rId254"/>
-    <hyperlink ref="E129" r:id="rId255"/>
-    <hyperlink ref="E130" r:id="rId256"/>
-    <hyperlink ref="E131" r:id="rId257"/>
-    <hyperlink ref="D132" r:id="rId258"/>
-    <hyperlink ref="E132" r:id="rId259"/>
-    <hyperlink ref="D133" r:id="rId260"/>
-    <hyperlink ref="D134" r:id="rId261"/>
-    <hyperlink ref="D135" r:id="rId262"/>
-    <hyperlink ref="D136" r:id="rId263"/>
-    <hyperlink ref="D137" r:id="rId264"/>
-    <hyperlink ref="D138" r:id="rId265"/>
-    <hyperlink ref="E133" r:id="rId266"/>
-    <hyperlink ref="E134" r:id="rId267"/>
-    <hyperlink ref="E135" r:id="rId268"/>
-    <hyperlink ref="E136" r:id="rId269"/>
-    <hyperlink ref="E137" r:id="rId270"/>
-    <hyperlink ref="E138" r:id="rId271"/>
-    <hyperlink ref="D140" r:id="rId272" display="http://www.ncbi.nlm.nih.gov/pubmed/19070889"/>
-    <hyperlink ref="D141" r:id="rId273" display="http://www.ncbi.nlm.nih.gov/pubmed/14984936"/>
-    <hyperlink ref="D142" r:id="rId274" display="http://www.ncbi.nlm.nih.gov/pubmed/21444867"/>
-    <hyperlink ref="D143" r:id="rId275" display="http://www.ncbi.nlm.nih.gov/pubmed/20206777"/>
-    <hyperlink ref="D144" r:id="rId276"/>
-    <hyperlink ref="D145" r:id="rId277" display="http://www.ncbi.nlm.nih.gov/pubmed/20619634"/>
-    <hyperlink ref="D146" r:id="rId278" display="https://www.ncbi.nlm.nih.gov/pubmed/16330675?dopt=Abstract"/>
-    <hyperlink ref="D147" r:id="rId279" display="https://www.ncbi.nlm.nih.gov/pubmed/29449189"/>
-    <hyperlink ref="D148" r:id="rId280"/>
-    <hyperlink ref="D149" r:id="rId281" display="https://www.ncbi.nlm.nih.gov/pubmed/28159465"/>
-    <hyperlink ref="D139" r:id="rId282"/>
-    <hyperlink ref="D157" r:id="rId283"/>
-    <hyperlink ref="D160" r:id="rId284" display="https://pubmed.ncbi.nlm.nih.gov/33443541/"/>
-    <hyperlink ref="D151" r:id="rId285"/>
-    <hyperlink ref="D150" r:id="rId286"/>
-    <hyperlink ref="D152" r:id="rId287"/>
-    <hyperlink ref="D153" r:id="rId288"/>
-    <hyperlink ref="D155" r:id="rId289"/>
-    <hyperlink ref="D154" r:id="rId290"/>
-    <hyperlink ref="D156" r:id="rId291"/>
-    <hyperlink ref="D158" r:id="rId292"/>
-    <hyperlink ref="D159" r:id="rId293"/>
-    <hyperlink ref="E150" r:id="rId294"/>
-    <hyperlink ref="E151" r:id="rId295"/>
-    <hyperlink ref="E152" r:id="rId296"/>
-    <hyperlink ref="E153" r:id="rId297"/>
-    <hyperlink ref="E154" r:id="rId298"/>
-    <hyperlink ref="E155" r:id="rId299"/>
-    <hyperlink ref="E156" r:id="rId300"/>
-    <hyperlink ref="E157" r:id="rId301"/>
-    <hyperlink ref="E158" r:id="rId302"/>
-    <hyperlink ref="E159" r:id="rId303"/>
-    <hyperlink ref="E160" r:id="rId304"/>
-    <hyperlink ref="E140" r:id="rId305"/>
-    <hyperlink ref="E141" r:id="rId306"/>
-    <hyperlink ref="E142" r:id="rId307"/>
-    <hyperlink ref="E143" r:id="rId308"/>
-    <hyperlink ref="E144" r:id="rId309"/>
-    <hyperlink ref="E145" r:id="rId310"/>
-    <hyperlink ref="E146" r:id="rId311"/>
-    <hyperlink ref="E147" r:id="rId312"/>
-    <hyperlink ref="E148" r:id="rId313"/>
-    <hyperlink ref="E149" r:id="rId314"/>
-    <hyperlink ref="E139" r:id="rId315"/>
-    <hyperlink ref="D161" r:id="rId316" display="http://www.ncbi.nlm.nih.gov/pubmed/2227541"/>
-    <hyperlink ref="D162" r:id="rId317" display="http://www.ncbi.nlm.nih.gov/pubmed/1526880"/>
-    <hyperlink ref="D163" r:id="rId318" display="https://www.ncbi.nlm.nih.gov/pubmed/19701032"/>
-    <hyperlink ref="D164" r:id="rId319" display="http://www.ncbi.nlm.nih.gov/pubmed/18281661"/>
-    <hyperlink ref="D165" r:id="rId320" display="https://www.ncbi.nlm.nih.gov/pubmed/9747823"/>
-    <hyperlink ref="D166" r:id="rId321" display="https://www.ncbi.nlm.nih.gov/pubmed/11072157"/>
-    <hyperlink ref="D167" r:id="rId322" display="http://www.ncbi.nlm.nih.gov/pubmed/22079361"/>
-    <hyperlink ref="D168" r:id="rId323"/>
-    <hyperlink ref="D170" r:id="rId324"/>
-    <hyperlink ref="D171" r:id="rId325"/>
-    <hyperlink ref="D169" r:id="rId326" display="GROINSS-V2"/>
-    <hyperlink ref="E161" r:id="rId327"/>
-    <hyperlink ref="E162" r:id="rId328"/>
-    <hyperlink ref="E163" r:id="rId329"/>
-    <hyperlink ref="E164" r:id="rId330"/>
-    <hyperlink ref="E165" r:id="rId331"/>
-    <hyperlink ref="E166" r:id="rId332"/>
-    <hyperlink ref="E167" r:id="rId333"/>
-    <hyperlink ref="E168" r:id="rId334"/>
-    <hyperlink ref="E169" r:id="rId335"/>
-    <hyperlink ref="E170" r:id="rId336"/>
-    <hyperlink ref="E171" r:id="rId337"/>
-    <hyperlink ref="D184" r:id="rId338" display="GELA"/>
-    <hyperlink ref="D185" r:id="rId339" display="FLYER"/>
-    <hyperlink ref="D186" r:id="rId340" display="NCTN S1001"/>
-    <hyperlink ref="D178" r:id="rId341"/>
-    <hyperlink ref="D179" r:id="rId342"/>
-    <hyperlink ref="D180" r:id="rId343"/>
-    <hyperlink ref="D181" r:id="rId344" display="MINT"/>
-    <hyperlink ref="D182" r:id="rId345"/>
-    <hyperlink ref="D183" r:id="rId346" display="FORT"/>
-    <hyperlink ref="E178" r:id="rId347"/>
-    <hyperlink ref="E179" r:id="rId348"/>
-    <hyperlink ref="E180" r:id="rId349"/>
-    <hyperlink ref="E181" r:id="rId350"/>
-    <hyperlink ref="E182" r:id="rId351"/>
-    <hyperlink ref="E183" r:id="rId352"/>
-    <hyperlink ref="E184" r:id="rId353"/>
-    <hyperlink ref="E185" r:id="rId354"/>
-    <hyperlink ref="E186" r:id="rId355"/>
-    <hyperlink ref="D172" r:id="rId356" display="https://www.ncbi.nlm.nih.gov/pubmed/20818855"/>
-    <hyperlink ref="D173" r:id="rId357" display="https://www.ncbi.nlm.nih.gov/pubmed/20713848"/>
-    <hyperlink ref="D174" r:id="rId358" display="http://ascopubs.org/doi/abs/10.1200/JCO.2016.68.6394"/>
-    <hyperlink ref="D175" r:id="rId359" display="https://www.ncbi.nlm.nih.gov/pubmed/25901426"/>
-    <hyperlink ref="D176" r:id="rId360" display="https://www.ncbi.nlm.nih.gov/pubmed/12802025"/>
-    <hyperlink ref="D177" r:id="rId361" display="https://www.ncbi.nlm.nih.gov/pubmed/17097834"/>
-    <hyperlink ref="E172" r:id="rId362"/>
-    <hyperlink ref="E173" r:id="rId363"/>
-    <hyperlink ref="E174" r:id="rId364"/>
-    <hyperlink ref="E175" r:id="rId365"/>
-    <hyperlink ref="E176" r:id="rId366"/>
-    <hyperlink ref="E177" r:id="rId367"/>
-    <hyperlink ref="D187" r:id="rId368" display="http://www.ncbi.nlm.nih.gov/pubmed/24043739"/>
-    <hyperlink ref="D188" r:id="rId369" display="https://www.ncbi.nlm.nih.gov/pubmed/21398619?dopt=Abstract"/>
-    <hyperlink ref="D189" r:id="rId370" display="http://www.ncbi.nlm.nih.gov/pubmed/22393101"/>
-    <hyperlink ref="D190" r:id="rId371" display="http://www.ncbi.nlm.nih.gov/pubmed/26371148"/>
-    <hyperlink ref="D191" r:id="rId372" display="https://www.ncbi.nlm.nih.gov/pubmed/24346130"/>
-    <hyperlink ref="D192" r:id="rId373" display="http://www.ncbi.nlm.nih.gov/pubmed/?term=rtog+9804"/>
-    <hyperlink ref="D193" r:id="rId374" display="http://www.ncbi.nlm.nih.gov/pubmed/23484825"/>
-    <hyperlink ref="D194" r:id="rId375" display="https://www.ncbi.nlm.nih.gov/pubmed/23641039"/>
-    <hyperlink ref="D195" r:id="rId376" location="s0030"/>
-    <hyperlink ref="D196" r:id="rId377"/>
-    <hyperlink ref="D197" r:id="rId378" display="Hyprfrac Dosimetry (Patel, 2019)"/>
-    <hyperlink ref="D198" r:id="rId379"/>
-    <hyperlink ref="E187" r:id="rId380"/>
-    <hyperlink ref="E188" r:id="rId381"/>
-    <hyperlink ref="E189" r:id="rId382"/>
-    <hyperlink ref="E190" r:id="rId383"/>
-    <hyperlink ref="E191" r:id="rId384"/>
-    <hyperlink ref="E192" r:id="rId385"/>
-    <hyperlink ref="E193" r:id="rId386"/>
-    <hyperlink ref="E194" r:id="rId387"/>
-    <hyperlink ref="E195" r:id="rId388"/>
-    <hyperlink ref="E196" r:id="rId389"/>
-    <hyperlink ref="E197" r:id="rId390"/>
-    <hyperlink ref="E198" r:id="rId391"/>
-    <hyperlink ref="D199" r:id="rId392" display="http://www.ncbi.nlm.nih.gov/pubmed/12393820"/>
-    <hyperlink ref="D200" r:id="rId393" display="https://www.ncbi.nlm.nih.gov/pubmed/25500422"/>
-    <hyperlink ref="D201" r:id="rId394" display="http://www.ncbi.nlm.nih.gov/pubmed/23690420"/>
-    <hyperlink ref="D202" r:id="rId395" display="https://www.ncbi.nlm.nih.gov/pubmed/25637340"/>
-    <hyperlink ref="D203" r:id="rId396" display="http://www.ncbi.nlm.nih.gov/pubmed/24055415"/>
-    <hyperlink ref="D204" r:id="rId397" display="http://www.ncbi.nlm.nih.gov/pubmed/21304082"/>
-    <hyperlink ref="D205" r:id="rId398" display="http://www.ncbi.nlm.nih.gov/pubmed/25439688"/>
-    <hyperlink ref="D206" r:id="rId399" display="http://www.nejm.org/doi/full/10.1056/NEJMoa1415340"/>
-    <hyperlink ref="D207" r:id="rId400" display="http://www.nejm.org/doi/full/10.1056/NEJMoa1415369?af=R"/>
-    <hyperlink ref="E199" r:id="rId401"/>
-    <hyperlink ref="E200" r:id="rId402"/>
-    <hyperlink ref="E201" r:id="rId403"/>
-    <hyperlink ref="E202" r:id="rId404"/>
-    <hyperlink ref="E203" r:id="rId405"/>
-    <hyperlink ref="E204" r:id="rId406"/>
-    <hyperlink ref="E205" r:id="rId407"/>
-    <hyperlink ref="E206" r:id="rId408"/>
-    <hyperlink ref="E207" r:id="rId409"/>
-    <hyperlink ref="D208" r:id="rId410"/>
-    <hyperlink ref="E208" r:id="rId411"/>
-    <hyperlink ref="D210" r:id="rId412"/>
-    <hyperlink ref="E210" r:id="rId413"/>
-    <hyperlink ref="D211" r:id="rId414" display="UK Fast Forward"/>
-    <hyperlink ref="E211" r:id="rId415"/>
-    <hyperlink ref="D212" r:id="rId416" display="UK Import Low"/>
-    <hyperlink ref="E212" r:id="rId417"/>
-    <hyperlink ref="D213" r:id="rId418"/>
-    <hyperlink ref="E213" r:id="rId419"/>
-    <hyperlink ref="D209" r:id="rId420"/>
-    <hyperlink ref="E209" r:id="rId421"/>
-    <hyperlink ref="D214" r:id="rId422" display="https://www.ncbi.nlm.nih.gov/pubmed/9395428?dopt=Abstract"/>
-    <hyperlink ref="D215" r:id="rId423" display="https://www.ncbi.nlm.nih.gov/pubmed/10335782?dopt=Abstract"/>
-    <hyperlink ref="D216" r:id="rId424" display="http://www.ncbi.nlm.nih.gov/pubmed/15452182"/>
-    <hyperlink ref="D217" r:id="rId425" display="http://www.ncbi.nlm.nih.gov/pubmed/10920129"/>
-    <hyperlink ref="D218" r:id="rId426" display="http://www.ncbi.nlm.nih.gov/pubmed/23032615"/>
-    <hyperlink ref="D219" r:id="rId427" display="http://www.ncbi.nlm.nih.gov/pubmed/15570071"/>
-    <hyperlink ref="D220" r:id="rId428" display="https://www.ncbi.nlm.nih.gov/pubmed/24439313"/>
-    <hyperlink ref="D221" r:id="rId429" display="http://www.redjournal.org/article/S0360-3016(16)33272-2/fulltext?rss=yes"/>
-    <hyperlink ref="D222" r:id="rId430"/>
-    <hyperlink ref="D224" r:id="rId431" display="http://www.ncbi.nlm.nih.gov/pubmed/10235156"/>
-    <hyperlink ref="D225" r:id="rId432" display="http://www.ncbi.nlm.nih.gov/pubmed/11870157"/>
-    <hyperlink ref="D226" r:id="rId433" display="http://www.ncbi.nlm.nih.gov/pubmed/26254683"/>
-    <hyperlink ref="D227" r:id="rId434" display="http://www.ncbi.nlm.nih.gov/pubmed/24419108"/>
-    <hyperlink ref="D228" r:id="rId435" display="http://www.ncbi.nlm.nih.gov/pubmed/19139439"/>
-    <hyperlink ref="D229" r:id="rId436" display="http://www.ncbi.nlm.nih.gov/pubmed/17401004"/>
-    <hyperlink ref="D230" r:id="rId437" display="http://www.ncbi.nlm.nih.gov/pubmed/20009774"/>
-    <hyperlink ref="D231" r:id="rId438"/>
-    <hyperlink ref="E231" r:id="rId439"/>
-    <hyperlink ref="D232" r:id="rId440" display="ARTDECO"/>
-    <hyperlink ref="E232" r:id="rId441"/>
-    <hyperlink ref="E224" r:id="rId442"/>
-    <hyperlink ref="E225" r:id="rId443"/>
-    <hyperlink ref="E226" r:id="rId444"/>
-    <hyperlink ref="E227" r:id="rId445"/>
-    <hyperlink ref="E228" r:id="rId446"/>
-    <hyperlink ref="E229" r:id="rId447"/>
-    <hyperlink ref="E230" r:id="rId448"/>
-    <hyperlink ref="E223" r:id="rId449"/>
-    <hyperlink ref="E214" r:id="rId450"/>
-    <hyperlink ref="E216" r:id="rId451"/>
-    <hyperlink ref="E217" r:id="rId452"/>
-    <hyperlink ref="E218" r:id="rId453"/>
-    <hyperlink ref="E219" r:id="rId454"/>
-    <hyperlink ref="E220" r:id="rId455"/>
-    <hyperlink ref="E221" r:id="rId456"/>
-    <hyperlink ref="E222" r:id="rId457"/>
-    <hyperlink ref="E215" r:id="rId458"/>
-    <hyperlink ref="D233" r:id="rId459"/>
-    <hyperlink ref="E233" r:id="rId460"/>
+    <hyperlink ref="E123" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D4" r:id="rId3" display="http://www.ncbi.nlm.nih.gov/pubmed/19269895" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D5" r:id="rId4" display="http://www.ncbi.nlm.nih.gov/pubmed/17429084" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D6" r:id="rId5" display="http://www.ncbi.nlm.nih.gov/pubmed/15051755" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="D7" r:id="rId6" display="http://www.ncbi.nlm.nih.gov/pubmed/22877848" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D8" r:id="rId7" display="https://www.ncbi.nlm.nih.gov/pubmed/28296618" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="D9" r:id="rId8" display="http://www.ncbi.nlm.nih.gov/pubmed/15465203" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="D21" r:id="rId9" display="http://www.ncbi.nlm.nih.gov/pubmed/16168780" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="D22" r:id="rId10" display="http://www.ncbi.nlm.nih.gov/pubmed/11956268" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="D23" r:id="rId11" display="http://www.ncbi.nlm.nih.gov/pubmed/27050206" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="D24" r:id="rId12" display="http://www.ncbi.nlm.nih.gov/pubmed/25680596" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="D25" r:id="rId13" display="https://www.ncbi.nlm.nih.gov/pubmed/27686946" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="D20" r:id="rId14" display="http://www.ncbi.nlm.nih.gov/pubmed/8948338" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="D12" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="D13" r:id="rId16" display="http://www.ncbi.nlm.nih.gov/pubmed/19901110" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="D14" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="D15" r:id="rId18" display="http://www.ncbi.nlm.nih.gov/pubmed/21636710" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="D16" r:id="rId19" display="http://www.ncbi.nlm.nih.gov/pubmed/23071247" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="D17" r:id="rId20" display="http://www.ncbi.nlm.nih.gov/pubmed/23071237" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="D18" r:id="rId21" display="https://www.ncbi.nlm.nih.gov/pubmed/28801186" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="D19" r:id="rId22" display="http://www.neurology.org/content/86/16_Supplement/PL02.005" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="D26" r:id="rId23" display="http://www.ncbi.nlm.nih.gov/pubmed/20530316" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="D27" r:id="rId24" display="http://www.ncbi.nlm.nih.gov/pubmed/24613816" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="D28" r:id="rId25" display="http://www.ncbi.nlm.nih.gov/pubmed/12506176" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="D29" r:id="rId26" display="http://www.ncbi.nlm.nih.gov/pubmed/19897418" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="D30" r:id="rId27" display="https://www.ncbi.nlm.nih.gov/pubmed/25154822" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="D31" r:id="rId28" display="https://www.ncbi.nlm.nih.gov/pubmed/22261362" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="D32" r:id="rId29" display="http://www.ncbi.nlm.nih.gov/pubmed/11567806" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="D35" r:id="rId30" display="http://www.ncbi.nlm.nih.gov/pubmed/9552031" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="D36" r:id="rId31" display="http://www.ncbi.nlm.nih.gov/pubmed/16170180" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="D37" r:id="rId32" display="http://www.ncbi.nlm.nih.gov/pubmed/22154591" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="D38" r:id="rId33" display="http://www.ncbi.nlm.nih.gov/pubmed/19564532" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="D44" r:id="rId34" display="http://www.ncbi.nlm.nih.gov/pubmed/23182993" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="D45" r:id="rId35" display="http://jco.ascopubs.org/content/32/25/2735.abstract?ijkey=86ab2cc6a91330d2106baa005e1ccf48e17bc035&amp;keytype2=tf_ipsecsha" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="D47" r:id="rId36" display="http://www.ncbi.nlm.nih.gov/pubmed/22492697" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="D48" r:id="rId37" display="http://www.ncbi.nlm.nih.gov/pubmed/8482629" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="D49" r:id="rId38" display="http://www.ncbi.nlm.nih.gov/pubmed/11597795" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="D50" r:id="rId39" display="http://www.ncbi.nlm.nih.gov/pubmed/15128893" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="D51" r:id="rId40" display="http://www.ncbi.nlm.nih.gov/pubmed/15128894" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="D52" r:id="rId41" display="http://www.ncbi.nlm.nih.gov/pubmed/16161069" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="D59" r:id="rId42" display="http://www.ncbi.nlm.nih.gov/pubmed/10561173" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="D60" r:id="rId43" display="http://www.ncbi.nlm.nih.gov/pubmed/15718317" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="D61" r:id="rId44" display="http://www.ncbi.nlm.nih.gov/pubmed/21282539" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="D62" r:id="rId45" display="https://www.ncbi.nlm.nih.gov/pubmed/12431967" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="D64" r:id="rId46" display="https://www.ncbi.nlm.nih.gov/pubmed/26700704" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="D65" r:id="rId47" display="https://www.ncbi.nlm.nih.gov/pubmed/27146264" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="D54" r:id="rId48" display="https://www.ncbi.nlm.nih.gov/pubmed/15629600?dopt=Abstract" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="D55" r:id="rId49" display="https://www.ncbi.nlm.nih.gov/pubmed/22539053" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="D56" r:id="rId50" display="https://www.ncbi.nlm.nih.gov/pubmed/19386433" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="D66" r:id="rId51" display="http://www.ncbi.nlm.nih.gov/pubmed/16710030" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="D67" r:id="rId52" display="http://www.ncbi.nlm.nih.gov/pubmed/11157016" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="D68" r:id="rId53" display="http://www.ncbi.nlm.nih.gov/pubmed/25498218" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="D69" r:id="rId54" display="https://www.ncbi.nlm.nih.gov/pubmed/21502557" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="D70" r:id="rId55" display="https://www.ncbi.nlm.nih.gov/pubmed/22512481" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="D71" r:id="rId56" display="http://www.ncbi.nlm.nih.gov/pubmed/23823157" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="E66" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="E67" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="E68" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="E69" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="E70" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="E71" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="E59" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="E60" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="E61" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="E62" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="E63" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="E64" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="E65" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="D11" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="D10" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="E3" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="E4" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="E5" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="E6" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="E7" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="E8" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="E9" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="E10" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="E11" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="E12" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="E13" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="E14" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="E15" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="E16" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="E17" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="E18" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="E19" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="E20" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="E21" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="E22" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="E23" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="E24" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="E25" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="D33" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="D34" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="E26" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="E27" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="E28" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="E29" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="E30" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="E31" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="E32" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="E33" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="E34" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="D39" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="E35" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="E36" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="E37" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="E38" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="E39" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="D46" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="E44" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="E46" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="E47" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="E45" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="E42" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="D42" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="E41" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="D41" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="D43" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="E43" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="D40" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="E40" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="E48" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="E49" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="E50" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="E51" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="E52" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="D53" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="E53" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="E54" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="E55" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="E56" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="D57" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="E57" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="D58" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="E58" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="D72" r:id="rId139" display="https://www.ncbi.nlm.nih.gov/pubmed/19297565?dopt=Abstract" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="D73" r:id="rId140" display="http://www.nejm.org/doi/full/10.1056/NEJMc1515131" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="D74" r:id="rId141" display="http://www.nejm.org/doi/full/10.1056/NEJMc1607379" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="D75" r:id="rId142" location="t=article" display="t=article" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="D76" r:id="rId143" display="http://www.nejm.org/doi/full/10.1056/NEJMoa1606221" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="D77" r:id="rId144" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4961874/" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="D78" r:id="rId145" display="https://www.ncbi.nlm.nih.gov/pubmed/27044935" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="D79" r:id="rId146" display="https://www.nejm.org/doi/full/10.1056/NEJMoa1807801" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="D80" r:id="rId147" display="http://www.nejm.org/doi/full/10.1056/NEJMoa1615869" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="D81" r:id="rId148" display="https://www.ncbi.nlm.nih.gov/pubmed/28110982" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="E72" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="E73" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="E74" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="E75" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="E76" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="E77" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="E78" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="E79" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="E80" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="E81" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="D82" r:id="rId159" display="http://www.ncbi.nlm.nih.gov/pubmed/18565884" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="D83" r:id="rId160" display="http://www.ncbi.nlm.nih.gov/pubmed/21751904" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="D84" r:id="rId161" display="http://meetinglibrary.asco.org/content/141191-159" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="D85" r:id="rId162" display="https://www.ncbi.nlm.nih.gov/pubmed/25534388" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="D86" r:id="rId163" display="https://www.ncbi.nlm.nih.gov/pubmed/17531401?dopt=Abstract" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="D87" r:id="rId164" display="https://www.ncbi.nlm.nih.gov/pubmed/18048817?dopt=Abstract" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="D88" r:id="rId165" display="https://www.ncbi.nlm.nih.gov/pubmed/19516032?dopt=Abstract" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="D89" r:id="rId166" display="https://www.ncbi.nlm.nih.gov/pubmed/29980331" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="D90" r:id="rId167" display="https://www.ncbi.nlm.nih.gov/pubmed/25702876" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="E82" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="E83" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="E84" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="E85" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="E86" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="E87" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="E88" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="E89" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="E90" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="D91" r:id="rId177" display="http://www.ncbi.nlm.nih.gov/pubmed/19167731" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="D92" r:id="rId178" display="https://www.ncbi.nlm.nih.gov/pubmed/28146658" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="D97" r:id="rId179" display="http://www.ncbi.nlm.nih.gov/pubmed/25245445" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="E91" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="E92" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="E97" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="D95" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="E95" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="D96" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="E96" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="D93" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="E93" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="D94" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="E94" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="D100" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="E100" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="D98" r:id="rId193" display="RAVES Adjuvant RT (Parker, 2019)" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="E98" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="D99" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="E99" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="D101" r:id="rId197" display="http://www.ncbi.nlm.nih.gov/pubmed/1331787" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="D102" r:id="rId198" display="http://www.ncbi.nlm.nih.gov/pubmed/8381164" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="D103" r:id="rId199" display="http://www.ncbi.nlm.nih.gov/pubmed/9920950" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="D104" r:id="rId200" display="https://www.ncbi.nlm.nih.gov/pubmed/28642008" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="D105" r:id="rId201" display="http://www.ncbi.nlm.nih.gov/pubmed/25230595" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="D106" r:id="rId202" display="http://www.ncbi.nlm.nih.gov/pubmed/10441603" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="D107" r:id="rId203" display="http://www.ncbi.nlm.nih.gov/pubmed/17699816" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="D108" r:id="rId204" display="https://www.ncbi.nlm.nih.gov/pubmed/28343976" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="D109" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="D110" r:id="rId206" display="Atezo Plus Cis/Etop ES-SCLC (NEJM 2018)" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="D111" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="D112" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="E112" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="E111" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="E110" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="E109" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="E108" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="E107" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="E106" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="E105" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="E104" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="E103" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="E102" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="E101" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="D113" r:id="rId221" display="http://www.ncbi.nlm.nih.gov/pubmed/7677489" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="D114" r:id="rId222" display="http://www.ncbi.nlm.nih.gov/pubmed/24982457" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="D115" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="D116" r:id="rId224" display="https://www.ncbi.nlm.nih.gov/pubmed/?term=Postoperative+Radiotherapy+for+Pathologic+N2+Non%E2%80%93Small-Cell+Lung+Cancer+Treated+With+Adjuvant+Chemotherapy%3A+A+Review+of+the+National+Cancer+Data+Base" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="D117" r:id="rId225" display="http://www.ncbi.nlm.nih.gov/pubmed/18439766" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="D118" r:id="rId226" display="http://www.ncbi.nlm.nih.gov/pubmed/20233825" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="D119" r:id="rId227" display="https://www.ncbi.nlm.nih.gov/pubmed/25981812" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="D120" r:id="rId228" display="https://www.ncbi.nlm.nih.gov/pubmed/25074417" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="D121" r:id="rId229" display="https://www.ncbi.nlm.nih.gov/pubmed/27600155" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="D122" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="E122" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="E113" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="E114" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="E115" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="E116" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="E117" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="E118" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="E119" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="E120" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="E121" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="D124" r:id="rId241" display="https://www.ncbi.nlm.nih.gov/pubmed/25601342" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="D125" r:id="rId242" display="http://ascopubs.org/doi/full/10.1200/JCO.2016.69.1378" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="D126" r:id="rId243" display="http://www.ncbi.nlm.nih.gov/pubmed/17551299" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="D127" r:id="rId244" display="http://www.ncbi.nlm.nih.gov/pubmed/19632716" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="D128" r:id="rId245" display="https://www.ncbi.nlm.nih.gov/pubmed/26527789" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="D129" r:id="rId246" display="http://www.ncbi.nlm.nih.gov/pubmed/11241082" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="D123" r:id="rId247" display="http://www.ncbi.nlm.nih.gov/pubmed/21903745" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="D131" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="D130" r:id="rId249" display="LAMP (Belani, 2016)" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="E124" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="E125" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="E126" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="E127" r:id="rId253" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="E128" r:id="rId254" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="E129" r:id="rId255" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="E130" r:id="rId256" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="E131" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="D132" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
+    <hyperlink ref="E132" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="D133" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
+    <hyperlink ref="D134" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="D135" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
+    <hyperlink ref="D136" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="D137" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
+    <hyperlink ref="D138" r:id="rId265" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
+    <hyperlink ref="E133" r:id="rId266" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
+    <hyperlink ref="E134" r:id="rId267" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
+    <hyperlink ref="E135" r:id="rId268" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
+    <hyperlink ref="E136" r:id="rId269" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
+    <hyperlink ref="E137" r:id="rId270" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
+    <hyperlink ref="E138" r:id="rId271" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
+    <hyperlink ref="D140" r:id="rId272" display="http://www.ncbi.nlm.nih.gov/pubmed/19070889" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
+    <hyperlink ref="D141" r:id="rId273" display="http://www.ncbi.nlm.nih.gov/pubmed/14984936" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
+    <hyperlink ref="D142" r:id="rId274" display="http://www.ncbi.nlm.nih.gov/pubmed/21444867" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
+    <hyperlink ref="D143" r:id="rId275" display="http://www.ncbi.nlm.nih.gov/pubmed/20206777" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
+    <hyperlink ref="D144" r:id="rId276" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
+    <hyperlink ref="D145" r:id="rId277" display="http://www.ncbi.nlm.nih.gov/pubmed/20619634" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
+    <hyperlink ref="D146" r:id="rId278" display="https://www.ncbi.nlm.nih.gov/pubmed/16330675?dopt=Abstract" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
+    <hyperlink ref="D147" r:id="rId279" display="https://www.ncbi.nlm.nih.gov/pubmed/29449189" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
+    <hyperlink ref="D148" r:id="rId280" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
+    <hyperlink ref="D149" r:id="rId281" display="https://www.ncbi.nlm.nih.gov/pubmed/28159465" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
+    <hyperlink ref="D139" r:id="rId282" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
+    <hyperlink ref="D157" r:id="rId283" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
+    <hyperlink ref="D160" r:id="rId284" display="https://pubmed.ncbi.nlm.nih.gov/33443541/" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
+    <hyperlink ref="D151" r:id="rId285" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
+    <hyperlink ref="D150" r:id="rId286" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
+    <hyperlink ref="D152" r:id="rId287" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
+    <hyperlink ref="D153" r:id="rId288" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
+    <hyperlink ref="D155" r:id="rId289" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
+    <hyperlink ref="D154" r:id="rId290" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
+    <hyperlink ref="D156" r:id="rId291" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
+    <hyperlink ref="D158" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
+    <hyperlink ref="D159" r:id="rId293" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
+    <hyperlink ref="E150" r:id="rId294" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
+    <hyperlink ref="E151" r:id="rId295" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
+    <hyperlink ref="E152" r:id="rId296" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
+    <hyperlink ref="E153" r:id="rId297" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
+    <hyperlink ref="E154" r:id="rId298" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
+    <hyperlink ref="E155" r:id="rId299" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
+    <hyperlink ref="E156" r:id="rId300" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
+    <hyperlink ref="E157" r:id="rId301" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
+    <hyperlink ref="E158" r:id="rId302" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
+    <hyperlink ref="E159" r:id="rId303" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
+    <hyperlink ref="E160" r:id="rId304" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
+    <hyperlink ref="E140" r:id="rId305" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
+    <hyperlink ref="E141" r:id="rId306" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
+    <hyperlink ref="E142" r:id="rId307" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
+    <hyperlink ref="E143" r:id="rId308" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
+    <hyperlink ref="E144" r:id="rId309" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
+    <hyperlink ref="E145" r:id="rId310" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
+    <hyperlink ref="E146" r:id="rId311" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
+    <hyperlink ref="E147" r:id="rId312" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
+    <hyperlink ref="E148" r:id="rId313" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
+    <hyperlink ref="E149" r:id="rId314" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
+    <hyperlink ref="E139" r:id="rId315" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
+    <hyperlink ref="D161" r:id="rId316" display="http://www.ncbi.nlm.nih.gov/pubmed/2227541" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
+    <hyperlink ref="D162" r:id="rId317" display="http://www.ncbi.nlm.nih.gov/pubmed/1526880" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
+    <hyperlink ref="D163" r:id="rId318" display="https://www.ncbi.nlm.nih.gov/pubmed/19701032" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
+    <hyperlink ref="D164" r:id="rId319" display="http://www.ncbi.nlm.nih.gov/pubmed/18281661" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
+    <hyperlink ref="D165" r:id="rId320" display="https://www.ncbi.nlm.nih.gov/pubmed/9747823" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
+    <hyperlink ref="D166" r:id="rId321" display="https://www.ncbi.nlm.nih.gov/pubmed/11072157" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
+    <hyperlink ref="D167" r:id="rId322" display="http://www.ncbi.nlm.nih.gov/pubmed/22079361" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
+    <hyperlink ref="D168" r:id="rId323" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
+    <hyperlink ref="D170" r:id="rId324" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
+    <hyperlink ref="D171" r:id="rId325" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
+    <hyperlink ref="D169" r:id="rId326" display="GROINSS-V2" xr:uid="{00000000-0004-0000-0000-000045010000}"/>
+    <hyperlink ref="E161" r:id="rId327" xr:uid="{00000000-0004-0000-0000-000046010000}"/>
+    <hyperlink ref="E162" r:id="rId328" xr:uid="{00000000-0004-0000-0000-000047010000}"/>
+    <hyperlink ref="E163" r:id="rId329" xr:uid="{00000000-0004-0000-0000-000048010000}"/>
+    <hyperlink ref="E164" r:id="rId330" xr:uid="{00000000-0004-0000-0000-000049010000}"/>
+    <hyperlink ref="E165" r:id="rId331" xr:uid="{00000000-0004-0000-0000-00004A010000}"/>
+    <hyperlink ref="E166" r:id="rId332" xr:uid="{00000000-0004-0000-0000-00004B010000}"/>
+    <hyperlink ref="E167" r:id="rId333" xr:uid="{00000000-0004-0000-0000-00004C010000}"/>
+    <hyperlink ref="E168" r:id="rId334" xr:uid="{00000000-0004-0000-0000-00004D010000}"/>
+    <hyperlink ref="E169" r:id="rId335" xr:uid="{00000000-0004-0000-0000-00004E010000}"/>
+    <hyperlink ref="E170" r:id="rId336" xr:uid="{00000000-0004-0000-0000-00004F010000}"/>
+    <hyperlink ref="E171" r:id="rId337" xr:uid="{00000000-0004-0000-0000-000050010000}"/>
+    <hyperlink ref="D184" r:id="rId338" display="GELA" xr:uid="{00000000-0004-0000-0000-000051010000}"/>
+    <hyperlink ref="D185" r:id="rId339" display="FLYER" xr:uid="{00000000-0004-0000-0000-000052010000}"/>
+    <hyperlink ref="D186" r:id="rId340" display="NCTN S1001" xr:uid="{00000000-0004-0000-0000-000053010000}"/>
+    <hyperlink ref="D178" r:id="rId341" xr:uid="{00000000-0004-0000-0000-000054010000}"/>
+    <hyperlink ref="D179" r:id="rId342" xr:uid="{00000000-0004-0000-0000-000055010000}"/>
+    <hyperlink ref="D180" r:id="rId343" xr:uid="{00000000-0004-0000-0000-000056010000}"/>
+    <hyperlink ref="D181" r:id="rId344" display="MINT" xr:uid="{00000000-0004-0000-0000-000057010000}"/>
+    <hyperlink ref="D182" r:id="rId345" xr:uid="{00000000-0004-0000-0000-000058010000}"/>
+    <hyperlink ref="D183" r:id="rId346" display="FORT" xr:uid="{00000000-0004-0000-0000-000059010000}"/>
+    <hyperlink ref="E178" r:id="rId347" xr:uid="{00000000-0004-0000-0000-00005A010000}"/>
+    <hyperlink ref="E179" r:id="rId348" xr:uid="{00000000-0004-0000-0000-00005B010000}"/>
+    <hyperlink ref="E180" r:id="rId349" xr:uid="{00000000-0004-0000-0000-00005C010000}"/>
+    <hyperlink ref="E181" r:id="rId350" xr:uid="{00000000-0004-0000-0000-00005D010000}"/>
+    <hyperlink ref="E182" r:id="rId351" xr:uid="{00000000-0004-0000-0000-00005E010000}"/>
+    <hyperlink ref="E183" r:id="rId352" xr:uid="{00000000-0004-0000-0000-00005F010000}"/>
+    <hyperlink ref="E184" r:id="rId353" xr:uid="{00000000-0004-0000-0000-000060010000}"/>
+    <hyperlink ref="E185" r:id="rId354" xr:uid="{00000000-0004-0000-0000-000061010000}"/>
+    <hyperlink ref="E186" r:id="rId355" xr:uid="{00000000-0004-0000-0000-000062010000}"/>
+    <hyperlink ref="D172" r:id="rId356" display="https://www.ncbi.nlm.nih.gov/pubmed/20818855" xr:uid="{00000000-0004-0000-0000-000063010000}"/>
+    <hyperlink ref="D173" r:id="rId357" display="https://www.ncbi.nlm.nih.gov/pubmed/20713848" xr:uid="{00000000-0004-0000-0000-000064010000}"/>
+    <hyperlink ref="D174" r:id="rId358" display="http://ascopubs.org/doi/abs/10.1200/JCO.2016.68.6394" xr:uid="{00000000-0004-0000-0000-000065010000}"/>
+    <hyperlink ref="D175" r:id="rId359" display="https://www.ncbi.nlm.nih.gov/pubmed/25901426" xr:uid="{00000000-0004-0000-0000-000066010000}"/>
+    <hyperlink ref="D176" r:id="rId360" display="https://www.ncbi.nlm.nih.gov/pubmed/12802025" xr:uid="{00000000-0004-0000-0000-000067010000}"/>
+    <hyperlink ref="D177" r:id="rId361" display="https://www.ncbi.nlm.nih.gov/pubmed/17097834" xr:uid="{00000000-0004-0000-0000-000068010000}"/>
+    <hyperlink ref="E172" r:id="rId362" xr:uid="{00000000-0004-0000-0000-000069010000}"/>
+    <hyperlink ref="E173" r:id="rId363" xr:uid="{00000000-0004-0000-0000-00006A010000}"/>
+    <hyperlink ref="E174" r:id="rId364" xr:uid="{00000000-0004-0000-0000-00006B010000}"/>
+    <hyperlink ref="E175" r:id="rId365" xr:uid="{00000000-0004-0000-0000-00006C010000}"/>
+    <hyperlink ref="E176" r:id="rId366" xr:uid="{00000000-0004-0000-0000-00006D010000}"/>
+    <hyperlink ref="E177" r:id="rId367" xr:uid="{00000000-0004-0000-0000-00006E010000}"/>
+    <hyperlink ref="D187" r:id="rId368" display="http://www.ncbi.nlm.nih.gov/pubmed/24043739" xr:uid="{00000000-0004-0000-0000-00006F010000}"/>
+    <hyperlink ref="D188" r:id="rId369" display="https://www.ncbi.nlm.nih.gov/pubmed/21398619?dopt=Abstract" xr:uid="{00000000-0004-0000-0000-000070010000}"/>
+    <hyperlink ref="D189" r:id="rId370" display="http://www.ncbi.nlm.nih.gov/pubmed/22393101" xr:uid="{00000000-0004-0000-0000-000071010000}"/>
+    <hyperlink ref="D190" r:id="rId371" display="http://www.ncbi.nlm.nih.gov/pubmed/26371148" xr:uid="{00000000-0004-0000-0000-000072010000}"/>
+    <hyperlink ref="D191" r:id="rId372" display="https://www.ncbi.nlm.nih.gov/pubmed/24346130" xr:uid="{00000000-0004-0000-0000-000073010000}"/>
+    <hyperlink ref="D192" r:id="rId373" display="http://www.ncbi.nlm.nih.gov/pubmed/?term=rtog+9804" xr:uid="{00000000-0004-0000-0000-000074010000}"/>
+    <hyperlink ref="D193" r:id="rId374" display="http://www.ncbi.nlm.nih.gov/pubmed/23484825" xr:uid="{00000000-0004-0000-0000-000075010000}"/>
+    <hyperlink ref="D194" r:id="rId375" display="https://www.ncbi.nlm.nih.gov/pubmed/23641039" xr:uid="{00000000-0004-0000-0000-000076010000}"/>
+    <hyperlink ref="D195" r:id="rId376" location="s0030" xr:uid="{00000000-0004-0000-0000-000077010000}"/>
+    <hyperlink ref="D196" r:id="rId377" xr:uid="{00000000-0004-0000-0000-000078010000}"/>
+    <hyperlink ref="D197" r:id="rId378" display="Hyprfrac Dosimetry (Patel, 2019)" xr:uid="{00000000-0004-0000-0000-000079010000}"/>
+    <hyperlink ref="D198" r:id="rId379" xr:uid="{00000000-0004-0000-0000-00007A010000}"/>
+    <hyperlink ref="E187" r:id="rId380" xr:uid="{00000000-0004-0000-0000-00007B010000}"/>
+    <hyperlink ref="E188" r:id="rId381" xr:uid="{00000000-0004-0000-0000-00007C010000}"/>
+    <hyperlink ref="E189" r:id="rId382" xr:uid="{00000000-0004-0000-0000-00007D010000}"/>
+    <hyperlink ref="E190" r:id="rId383" xr:uid="{00000000-0004-0000-0000-00007E010000}"/>
+    <hyperlink ref="E191" r:id="rId384" xr:uid="{00000000-0004-0000-0000-00007F010000}"/>
+    <hyperlink ref="E192" r:id="rId385" xr:uid="{00000000-0004-0000-0000-000080010000}"/>
+    <hyperlink ref="E193" r:id="rId386" xr:uid="{00000000-0004-0000-0000-000081010000}"/>
+    <hyperlink ref="E194" r:id="rId387" xr:uid="{00000000-0004-0000-0000-000082010000}"/>
+    <hyperlink ref="E195" r:id="rId388" xr:uid="{00000000-0004-0000-0000-000083010000}"/>
+    <hyperlink ref="E196" r:id="rId389" xr:uid="{00000000-0004-0000-0000-000084010000}"/>
+    <hyperlink ref="E197" r:id="rId390" xr:uid="{00000000-0004-0000-0000-000085010000}"/>
+    <hyperlink ref="E198" r:id="rId391" xr:uid="{00000000-0004-0000-0000-000086010000}"/>
+    <hyperlink ref="D199" r:id="rId392" display="http://www.ncbi.nlm.nih.gov/pubmed/12393820" xr:uid="{00000000-0004-0000-0000-000087010000}"/>
+    <hyperlink ref="D200" r:id="rId393" display="https://www.ncbi.nlm.nih.gov/pubmed/25500422" xr:uid="{00000000-0004-0000-0000-000088010000}"/>
+    <hyperlink ref="D201" r:id="rId394" display="http://www.ncbi.nlm.nih.gov/pubmed/23690420" xr:uid="{00000000-0004-0000-0000-000089010000}"/>
+    <hyperlink ref="D202" r:id="rId395" display="https://www.ncbi.nlm.nih.gov/pubmed/25637340" xr:uid="{00000000-0004-0000-0000-00008A010000}"/>
+    <hyperlink ref="D203" r:id="rId396" display="http://www.ncbi.nlm.nih.gov/pubmed/24055415" xr:uid="{00000000-0004-0000-0000-00008B010000}"/>
+    <hyperlink ref="D204" r:id="rId397" display="http://www.ncbi.nlm.nih.gov/pubmed/21304082" xr:uid="{00000000-0004-0000-0000-00008C010000}"/>
+    <hyperlink ref="D205" r:id="rId398" display="http://www.ncbi.nlm.nih.gov/pubmed/25439688" xr:uid="{00000000-0004-0000-0000-00008D010000}"/>
+    <hyperlink ref="D206" r:id="rId399" display="http://www.nejm.org/doi/full/10.1056/NEJMoa1415340" xr:uid="{00000000-0004-0000-0000-00008E010000}"/>
+    <hyperlink ref="D207" r:id="rId400" display="http://www.nejm.org/doi/full/10.1056/NEJMoa1415369?af=R" xr:uid="{00000000-0004-0000-0000-00008F010000}"/>
+    <hyperlink ref="E199" r:id="rId401" xr:uid="{00000000-0004-0000-0000-000090010000}"/>
+    <hyperlink ref="E200" r:id="rId402" xr:uid="{00000000-0004-0000-0000-000091010000}"/>
+    <hyperlink ref="E201" r:id="rId403" xr:uid="{00000000-0004-0000-0000-000092010000}"/>
+    <hyperlink ref="E202" r:id="rId404" xr:uid="{00000000-0004-0000-0000-000093010000}"/>
+    <hyperlink ref="E203" r:id="rId405" xr:uid="{00000000-0004-0000-0000-000094010000}"/>
+    <hyperlink ref="E204" r:id="rId406" xr:uid="{00000000-0004-0000-0000-000095010000}"/>
+    <hyperlink ref="E205" r:id="rId407" xr:uid="{00000000-0004-0000-0000-000096010000}"/>
+    <hyperlink ref="E206" r:id="rId408" xr:uid="{00000000-0004-0000-0000-000097010000}"/>
+    <hyperlink ref="E207" r:id="rId409" xr:uid="{00000000-0004-0000-0000-000098010000}"/>
+    <hyperlink ref="D208" r:id="rId410" xr:uid="{00000000-0004-0000-0000-000099010000}"/>
+    <hyperlink ref="E208" r:id="rId411" xr:uid="{00000000-0004-0000-0000-00009A010000}"/>
+    <hyperlink ref="D210" r:id="rId412" xr:uid="{00000000-0004-0000-0000-00009B010000}"/>
+    <hyperlink ref="E210" r:id="rId413" xr:uid="{00000000-0004-0000-0000-00009C010000}"/>
+    <hyperlink ref="D211" r:id="rId414" display="UK Fast Forward" xr:uid="{00000000-0004-0000-0000-00009D010000}"/>
+    <hyperlink ref="E211" r:id="rId415" xr:uid="{00000000-0004-0000-0000-00009E010000}"/>
+    <hyperlink ref="D212" r:id="rId416" display="UK Import Low" xr:uid="{00000000-0004-0000-0000-00009F010000}"/>
+    <hyperlink ref="E212" r:id="rId417" xr:uid="{00000000-0004-0000-0000-0000A0010000}"/>
+    <hyperlink ref="D213" r:id="rId418" xr:uid="{00000000-0004-0000-0000-0000A1010000}"/>
+    <hyperlink ref="E213" r:id="rId419" xr:uid="{00000000-0004-0000-0000-0000A2010000}"/>
+    <hyperlink ref="D209" r:id="rId420" xr:uid="{00000000-0004-0000-0000-0000A3010000}"/>
+    <hyperlink ref="E209" r:id="rId421" xr:uid="{00000000-0004-0000-0000-0000A4010000}"/>
+    <hyperlink ref="D214" r:id="rId422" display="https://www.ncbi.nlm.nih.gov/pubmed/9395428?dopt=Abstract" xr:uid="{00000000-0004-0000-0000-0000A5010000}"/>
+    <hyperlink ref="D215" r:id="rId423" display="https://www.ncbi.nlm.nih.gov/pubmed/10335782?dopt=Abstract" xr:uid="{00000000-0004-0000-0000-0000A6010000}"/>
+    <hyperlink ref="D216" r:id="rId424" display="http://www.ncbi.nlm.nih.gov/pubmed/15452182" xr:uid="{00000000-0004-0000-0000-0000A7010000}"/>
+    <hyperlink ref="D217" r:id="rId425" display="http://www.ncbi.nlm.nih.gov/pubmed/10920129" xr:uid="{00000000-0004-0000-0000-0000A8010000}"/>
+    <hyperlink ref="D218" r:id="rId426" display="http://www.ncbi.nlm.nih.gov/pubmed/23032615" xr:uid="{00000000-0004-0000-0000-0000A9010000}"/>
+    <hyperlink ref="D219" r:id="rId427" display="http://www.ncbi.nlm.nih.gov/pubmed/15570071" xr:uid="{00000000-0004-0000-0000-0000AA010000}"/>
+    <hyperlink ref="D220" r:id="rId428" display="https://www.ncbi.nlm.nih.gov/pubmed/24439313" xr:uid="{00000000-0004-0000-0000-0000AB010000}"/>
+    <hyperlink ref="D221" r:id="rId429" display="http://www.redjournal.org/article/S0360-3016(16)33272-2/fulltext?rss=yes" xr:uid="{00000000-0004-0000-0000-0000AC010000}"/>
+    <hyperlink ref="D222" r:id="rId430" xr:uid="{00000000-0004-0000-0000-0000AD010000}"/>
+    <hyperlink ref="D224" r:id="rId431" display="http://www.ncbi.nlm.nih.gov/pubmed/10235156" xr:uid="{00000000-0004-0000-0000-0000AE010000}"/>
+    <hyperlink ref="D225" r:id="rId432" display="http://www.ncbi.nlm.nih.gov/pubmed/11870157" xr:uid="{00000000-0004-0000-0000-0000AF010000}"/>
+    <hyperlink ref="D226" r:id="rId433" display="http://www.ncbi.nlm.nih.gov/pubmed/26254683" xr:uid="{00000000-0004-0000-0000-0000B0010000}"/>
+    <hyperlink ref="D227" r:id="rId434" display="http://www.ncbi.nlm.nih.gov/pubmed/24419108" xr:uid="{00000000-0004-0000-0000-0000B1010000}"/>
+    <hyperlink ref="D228" r:id="rId435" display="http://www.ncbi.nlm.nih.gov/pubmed/19139439" xr:uid="{00000000-0004-0000-0000-0000B2010000}"/>
+    <hyperlink ref="D229" r:id="rId436" display="http://www.ncbi.nlm.nih.gov/pubmed/17401004" xr:uid="{00000000-0004-0000-0000-0000B3010000}"/>
+    <hyperlink ref="D230" r:id="rId437" display="http://www.ncbi.nlm.nih.gov/pubmed/20009774" xr:uid="{00000000-0004-0000-0000-0000B4010000}"/>
+    <hyperlink ref="D231" r:id="rId438" xr:uid="{00000000-0004-0000-0000-0000B5010000}"/>
+    <hyperlink ref="E231" r:id="rId439" xr:uid="{00000000-0004-0000-0000-0000B6010000}"/>
+    <hyperlink ref="D232" r:id="rId440" display="ARTDECO" xr:uid="{00000000-0004-0000-0000-0000B7010000}"/>
+    <hyperlink ref="E232" r:id="rId441" xr:uid="{00000000-0004-0000-0000-0000B8010000}"/>
+    <hyperlink ref="E224" r:id="rId442" xr:uid="{00000000-0004-0000-0000-0000B9010000}"/>
+    <hyperlink ref="E225" r:id="rId443" xr:uid="{00000000-0004-0000-0000-0000BA010000}"/>
+    <hyperlink ref="E226" r:id="rId444" xr:uid="{00000000-0004-0000-0000-0000BB010000}"/>
+    <hyperlink ref="E227" r:id="rId445" xr:uid="{00000000-0004-0000-0000-0000BC010000}"/>
+    <hyperlink ref="E228" r:id="rId446" xr:uid="{00000000-0004-0000-0000-0000BD010000}"/>
+    <hyperlink ref="E229" r:id="rId447" xr:uid="{00000000-0004-0000-0000-0000BE010000}"/>
+    <hyperlink ref="E230" r:id="rId448" xr:uid="{00000000-0004-0000-0000-0000BF010000}"/>
+    <hyperlink ref="E223" r:id="rId449" xr:uid="{00000000-0004-0000-0000-0000C0010000}"/>
+    <hyperlink ref="E214" r:id="rId450" xr:uid="{00000000-0004-0000-0000-0000C1010000}"/>
+    <hyperlink ref="E216" r:id="rId451" xr:uid="{00000000-0004-0000-0000-0000C2010000}"/>
+    <hyperlink ref="E217" r:id="rId452" xr:uid="{00000000-0004-0000-0000-0000C3010000}"/>
+    <hyperlink ref="E218" r:id="rId453" xr:uid="{00000000-0004-0000-0000-0000C4010000}"/>
+    <hyperlink ref="E219" r:id="rId454" xr:uid="{00000000-0004-0000-0000-0000C5010000}"/>
+    <hyperlink ref="E220" r:id="rId455" xr:uid="{00000000-0004-0000-0000-0000C6010000}"/>
+    <hyperlink ref="E221" r:id="rId456" xr:uid="{00000000-0004-0000-0000-0000C7010000}"/>
+    <hyperlink ref="E222" r:id="rId457" xr:uid="{00000000-0004-0000-0000-0000C8010000}"/>
+    <hyperlink ref="E215" r:id="rId458" xr:uid="{00000000-0004-0000-0000-0000C9010000}"/>
+    <hyperlink ref="D233" r:id="rId459" xr:uid="{00000000-0004-0000-0000-0000CA010000}"/>
+    <hyperlink ref="E233" r:id="rId460" xr:uid="{00000000-0004-0000-0000-0000CB010000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId461"/>
@@ -5852,6 +8693,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007888E8BDFDA7B047988C3F6D47A3FA47" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="31277e96d0fac46bd8ecae45373800e5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="0610ab66-1de2-47e7-907f-b8ce3d38ca1f" xmlns:ns4="791c3732-1b31-441b-9e02-7ed2487cdbb2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7fa3b53b89d09b528eef8c10e7fc52a1" ns3:_="" ns4:_="">
     <xsd:import namespace="0610ab66-1de2-47e7-907f-b8ce3d38ca1f"/>
@@ -6068,22 +8924,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{519BCD5D-2E5B-47C1-8979-8445AA1531B8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98ACF4A6-C4DE-4652-BD99-6E764A5F5C64}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="0610ab66-1de2-47e7-907f-b8ce3d38ca1f"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="791c3732-1b31-441b-9e02-7ed2487cdbb2"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C6F01EF-5E57-4C08-9D56-6F7B2D35684D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6100,29 +8966,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98ACF4A6-C4DE-4652-BD99-6E764A5F5C64}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="791c3732-1b31-441b-9e02-7ed2487cdbb2"/>
-    <ds:schemaRef ds:uri="0610ab66-1de2-47e7-907f-b8ce3d38ca1f"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{519BCD5D-2E5B-47C1-8979-8445AA1531B8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>